--- a/input_data/admin_data/URY/gpinter_URY_2009.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2009.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>N</t>
+    <t>thr</t>
   </si>
   <si>
-    <t>thr</t>
+    <t>p</t>
   </si>
   <si>
     <t>bracketavg</t>
@@ -54,16 +54,13 @@
     <t>cap_inc</t>
   </si>
   <si>
-    <t>topavg</t>
-  </si>
-  <si>
-    <t>p</t>
+    <t>average</t>
   </si>
   <si>
     <t>totalpop</t>
   </si>
   <si>
-    <t>average</t>
+    <t>topavg</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:P128"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -159,16 +156,13 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>33780</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -196,24 +190,21 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O2">
+        <v>3378083</v>
+      </c>
+      <c r="P2">
         <v>71608.495400298372</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>3378083</v>
-      </c>
-      <c r="Q2">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>33781</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.0099999997764825821</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -241,24 +232,21 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O3">
+        <v>3378083</v>
+      </c>
+      <c r="P3">
         <v>72331.795800388471</v>
-      </c>
-      <c r="O3">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="P3">
-        <v>3378083</v>
-      </c>
-      <c r="Q3">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>33781</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -286,24 +274,21 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O4">
+        <v>3378083</v>
+      </c>
+      <c r="P4">
         <v>73069.879139516328</v>
-      </c>
-      <c r="O4">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="P4">
-        <v>3378083</v>
-      </c>
-      <c r="Q4">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>33781</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0.029999999329447746</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -331,24 +316,21 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O5">
+        <v>3378083</v>
+      </c>
+      <c r="P5">
         <v>73823.180770775449</v>
-      </c>
-      <c r="O5">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="P5">
-        <v>3378083</v>
-      </c>
-      <c r="Q5">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>33781</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0.039999999105930328</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -376,24 +358,21 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O6">
+        <v>3378083</v>
+      </c>
+      <c r="P6">
         <v>74592.176268287934</v>
-      </c>
-      <c r="O6">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="P6">
-        <v>3378083</v>
-      </c>
-      <c r="Q6">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>33781</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -421,24 +400,21 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O7">
+        <v>3378083</v>
+      </c>
+      <c r="P7">
         <v>75377.361230455514</v>
-      </c>
-      <c r="O7">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="P7">
-        <v>3378083</v>
-      </c>
-      <c r="Q7">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>33780</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -466,24 +442,21 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O8">
+        <v>3378083</v>
+      </c>
+      <c r="P8">
         <v>76179.252345086541</v>
-      </c>
-      <c r="O8">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="P8">
-        <v>3378083</v>
-      </c>
-      <c r="Q8">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>33781</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>0.070000000298023224</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -511,24 +484,21 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O9">
+        <v>3378083</v>
+      </c>
+      <c r="P9">
         <v>76998.364014082792</v>
-      </c>
-      <c r="O9">
-        <v>0.070000000298023224</v>
-      </c>
-      <c r="P9">
-        <v>3378083</v>
-      </c>
-      <c r="Q9">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>33781</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0.079999998211860657</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -556,24 +526,21 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O10">
+        <v>3378083</v>
+      </c>
+      <c r="P10">
         <v>77835.307062158608</v>
-      </c>
-      <c r="O10">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="P10">
-        <v>3378083</v>
-      </c>
-      <c r="Q10">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33781</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>0.090000003576278687</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -601,24 +568,21 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O11">
+        <v>3378083</v>
+      </c>
+      <c r="P11">
         <v>78690.644558679254</v>
-      </c>
-      <c r="O11">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="P11">
-        <v>3378083</v>
-      </c>
-      <c r="Q11">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>33781</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -646,24 +610,21 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O12">
+        <v>3378083</v>
+      </c>
+      <c r="P12">
         <v>79564.98965515304</v>
-      </c>
-      <c r="O12">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="P12">
-        <v>3378083</v>
-      </c>
-      <c r="Q12">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>33781</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0.10999999940395355</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -691,24 +652,21 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O13">
+        <v>3378083</v>
+      </c>
+      <c r="P13">
         <v>80458.983060606071</v>
-      </c>
-      <c r="O13">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="P13">
-        <v>3378083</v>
-      </c>
-      <c r="Q13">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>33780</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -736,24 +694,21 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O14">
+        <v>3378083</v>
+      </c>
+      <c r="P14">
         <v>81373.294607358781</v>
-      </c>
-      <c r="O14">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="P14">
-        <v>3378083</v>
-      </c>
-      <c r="Q14">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>33781</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>0.12999999523162842</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -781,24 +736,21 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O15">
+        <v>3378083</v>
+      </c>
+      <c r="P15">
         <v>82308.596918482886</v>
-      </c>
-      <c r="O15">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="P15">
-        <v>3378083</v>
-      </c>
-      <c r="Q15">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>33781</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>0.14000000059604645</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -826,24 +778,21 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O16">
+        <v>3378083</v>
+      </c>
+      <c r="P16">
         <v>83265.678568456773</v>
-      </c>
-      <c r="O16">
-        <v>0.14000000059604645</v>
-      </c>
-      <c r="P16">
-        <v>3378083</v>
-      </c>
-      <c r="Q16">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>33781</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -871,24 +820,21 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O17">
+        <v>3378083</v>
+      </c>
+      <c r="P17">
         <v>84245.279904307259</v>
-      </c>
-      <c r="O17">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="P17">
-        <v>3378083</v>
-      </c>
-      <c r="Q17">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>33781</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>0.15999999642372131</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -916,24 +862,21 @@
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O18">
+        <v>3378083</v>
+      </c>
+      <c r="P18">
         <v>85248.205204781509</v>
-      </c>
-      <c r="O18">
-        <v>0.15999999642372131</v>
-      </c>
-      <c r="P18">
-        <v>3378083</v>
-      </c>
-      <c r="Q18">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>33780</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>0.17000000178813934</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -961,24 +904,21 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O19">
+        <v>3378083</v>
+      </c>
+      <c r="P19">
         <v>86275.297509255543</v>
-      </c>
-      <c r="O19">
-        <v>0.17000000178813934</v>
-      </c>
-      <c r="P19">
-        <v>3378083</v>
-      </c>
-      <c r="Q19">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>33781</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>0.18000000715255737</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1006,24 +946,21 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O20">
+        <v>3378083</v>
+      </c>
+      <c r="P20">
         <v>87327.409455366782</v>
-      </c>
-      <c r="O20">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="P20">
-        <v>3378083</v>
-      </c>
-      <c r="Q20">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>33781</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>0.18999999761581421</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1051,24 +988,21 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O21">
+        <v>3378083</v>
+      </c>
+      <c r="P21">
         <v>88405.531137660728</v>
-      </c>
-      <c r="O21">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="P21">
-        <v>3378083</v>
-      </c>
-      <c r="Q21">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>33781</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1096,24 +1030,21 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O22">
+        <v>3378083</v>
+      </c>
+      <c r="P22">
         <v>89510.606001641005</v>
-      </c>
-      <c r="O22">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="P22">
-        <v>3378083</v>
-      </c>
-      <c r="Q22">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>33781</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>0.20999999344348907</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1141,24 +1072,21 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O23">
+        <v>3378083</v>
+      </c>
+      <c r="P23">
         <v>90643.657591222174</v>
-      </c>
-      <c r="O23">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="P23">
-        <v>3378083</v>
-      </c>
-      <c r="Q23">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>33781</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1186,24 +1114,21 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O24">
+        <v>3378083</v>
+      </c>
+      <c r="P24">
         <v>91805.761940029217</v>
-      </c>
-      <c r="O24">
-        <v>0.2199999988079071</v>
-      </c>
-      <c r="P24">
-        <v>3378083</v>
-      </c>
-      <c r="Q24">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>33780</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>0.23000000417232513</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1231,24 +1156,21 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O25">
+        <v>3378083</v>
+      </c>
+      <c r="P25">
         <v>92998.050979838605</v>
-      </c>
-      <c r="O25">
-        <v>0.23000000417232513</v>
-      </c>
-      <c r="P25">
-        <v>3378083</v>
-      </c>
-      <c r="Q25">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>33781</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>0.23999999463558197</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1276,24 +1198,21 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O26">
+        <v>3378083</v>
+      </c>
+      <c r="P26">
         <v>94221.679518019504</v>
-      </c>
-      <c r="O26">
-        <v>0.23999999463558197</v>
-      </c>
-      <c r="P26">
-        <v>3378083</v>
-      </c>
-      <c r="Q26">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33781</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>0.25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1321,24 +1240,21 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O27">
+        <v>3378083</v>
+      </c>
+      <c r="P27">
         <v>95477.975024424406</v>
-      </c>
-      <c r="O27">
-        <v>0.25</v>
-      </c>
-      <c r="P27">
-        <v>3378083</v>
-      </c>
-      <c r="Q27">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>33781</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>0.25999999046325684</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1366,24 +1282,21 @@
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O28">
+        <v>3378083</v>
+      </c>
+      <c r="P28">
         <v>96768.224640010769</v>
-      </c>
-      <c r="O28">
-        <v>0.25999999046325684</v>
-      </c>
-      <c r="P28">
-        <v>3378083</v>
-      </c>
-      <c r="Q28">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>33781</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>0.27000001072883606</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1411,24 +1324,21 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O29">
+        <v>3378083</v>
+      </c>
+      <c r="P29">
         <v>98093.823746484486</v>
-      </c>
-      <c r="O29">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="P29">
-        <v>3378083</v>
-      </c>
-      <c r="Q29">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>33781</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1456,24 +1366,21 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O30">
+        <v>3378083</v>
+      </c>
+      <c r="P30">
         <v>99456.245247171712</v>
-      </c>
-      <c r="O30">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="P30">
-        <v>3378083</v>
-      </c>
-      <c r="Q30">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>33780</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>0.28999999165534973</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1501,24 +1408,21 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O31">
+        <v>3378083</v>
+      </c>
+      <c r="P31">
         <v>100857.04502631744</v>
-      </c>
-      <c r="O31">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="P31">
-        <v>3378083</v>
-      </c>
-      <c r="Q31">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>33781</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1546,24 +1450,21 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O32">
+        <v>3378083</v>
+      </c>
+      <c r="P32">
         <v>102297.8246151582</v>
-      </c>
-      <c r="O32">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="P32">
-        <v>3378083</v>
-      </c>
-      <c r="Q32">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>33781</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1591,24 +1492,21 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O33">
+        <v>3378083</v>
+      </c>
+      <c r="P33">
         <v>103780.40941621148</v>
-      </c>
-      <c r="O33">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="P33">
-        <v>3378083</v>
-      </c>
-      <c r="Q33">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33781</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>0.31999999284744263</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1636,24 +1534,21 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O34">
+        <v>3378083</v>
+      </c>
+      <c r="P34">
         <v>105306.59988038408</v>
-      </c>
-      <c r="O34">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="P34">
-        <v>3378083</v>
-      </c>
-      <c r="Q34">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>33781</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>0.33000001311302185</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1681,24 +1576,21 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O35">
+        <v>3378083</v>
+      </c>
+      <c r="P35">
         <v>106878.34851040653</v>
-      </c>
-      <c r="O35">
-        <v>0.33000001311302185</v>
-      </c>
-      <c r="P35">
-        <v>3378083</v>
-      </c>
-      <c r="Q35">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>33781</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1726,24 +1618,21 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O36">
+        <v>3378083</v>
+      </c>
+      <c r="P36">
         <v>108497.72614314505</v>
-      </c>
-      <c r="O36">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="P36">
-        <v>3378083</v>
-      </c>
-      <c r="Q36">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>33780</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1771,24 +1660,21 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O37">
+        <v>3378083</v>
+      </c>
+      <c r="P37">
         <v>110166.93105227717</v>
-      </c>
-      <c r="O37">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="P37">
-        <v>3378083</v>
-      </c>
-      <c r="Q37">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>33781</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>0.36000001430511475</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1816,24 +1702,21 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O38">
+        <v>3378083</v>
+      </c>
+      <c r="P38">
         <v>111888.24715148189</v>
-      </c>
-      <c r="O38">
-        <v>0.36000001430511475</v>
-      </c>
-      <c r="P38">
-        <v>3378083</v>
-      </c>
-      <c r="Q38">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>33781</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>0.37000000476837158</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1861,24 +1744,21 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O39">
+        <v>3378083</v>
+      </c>
+      <c r="P39">
         <v>113664.26025416444</v>
-      </c>
-      <c r="O39">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="P39">
-        <v>3378083</v>
-      </c>
-      <c r="Q39">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>33781</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>0.37999999523162842</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1906,24 +1786,21 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O40">
+        <v>3378083</v>
+      </c>
+      <c r="P40">
         <v>115497.56440299003</v>
-      </c>
-      <c r="O40">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="P40">
-        <v>3378083</v>
-      </c>
-      <c r="Q40">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>33781</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1951,24 +1828,21 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O41">
+        <v>3378083</v>
+      </c>
+      <c r="P41">
         <v>117390.97720543269</v>
-      </c>
-      <c r="O41">
-        <v>0.38999998569488525</v>
-      </c>
-      <c r="P41">
-        <v>3378083</v>
-      </c>
-      <c r="Q41">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>33781</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1996,24 +1870,21 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O42">
+        <v>3378083</v>
+      </c>
+      <c r="P42">
         <v>119347.50411048418</v>
-      </c>
-      <c r="O42">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="P42">
-        <v>3378083</v>
-      </c>
-      <c r="Q42">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>33780</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2041,24 +1912,21 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O43">
+        <v>3378083</v>
+      </c>
+      <c r="P43">
         <v>121370.35432751453</v>
-      </c>
-      <c r="O43">
-        <v>0.40999999642372131</v>
-      </c>
-      <c r="P43">
-        <v>3378083</v>
-      </c>
-      <c r="Q43">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>33781</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2086,24 +1954,21 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O44">
+        <v>3378083</v>
+      </c>
+      <c r="P44">
         <v>123462.89537772433</v>
-      </c>
-      <c r="O44">
-        <v>0.41999998688697815</v>
-      </c>
-      <c r="P44">
-        <v>3378083</v>
-      </c>
-      <c r="Q44">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>33781</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2131,24 +1996,21 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O45">
+        <v>3378083</v>
+      </c>
+      <c r="P45">
         <v>125628.92233517238</v>
-      </c>
-      <c r="O45">
-        <v>0.43000000715255737</v>
-      </c>
-      <c r="P45">
-        <v>3378083</v>
-      </c>
-      <c r="Q45">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>33781</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2176,24 +2038,21 @@
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O46">
+        <v>3378083</v>
+      </c>
+      <c r="P46">
         <v>127872.30780717226</v>
-      </c>
-      <c r="O46">
-        <v>0.43999999761581421</v>
-      </c>
-      <c r="P46">
-        <v>3378083</v>
-      </c>
-      <c r="Q46">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>33781</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2221,24 +2080,21 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O47">
+        <v>3378083</v>
+      </c>
+      <c r="P47">
         <v>130197.27137177406</v>
-      </c>
-      <c r="O47">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="P47">
-        <v>3378083</v>
-      </c>
-      <c r="Q47">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>33781</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2266,24 +2122,21 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O48">
+        <v>3378083</v>
+      </c>
+      <c r="P48">
         <v>132608.34517007833</v>
-      </c>
-      <c r="O48">
-        <v>0.46000000834465027</v>
-      </c>
-      <c r="P48">
-        <v>3378083</v>
-      </c>
-      <c r="Q48">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>33780</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2311,24 +2164,21 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O49">
+        <v>3378083</v>
+      </c>
+      <c r="P49">
         <v>135110.40339348104</v>
-      </c>
-      <c r="O49">
-        <v>0.4699999988079071</v>
-      </c>
-      <c r="P49">
-        <v>3378083</v>
-      </c>
-      <c r="Q49">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>33781</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2356,24 +2206,21 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O50">
+        <v>3378083</v>
+      </c>
+      <c r="P50">
         <v>137708.61677842448</v>
-      </c>
-      <c r="O50">
-        <v>0.47999998927116394</v>
-      </c>
-      <c r="P50">
-        <v>3378083</v>
-      </c>
-      <c r="Q50">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>33781</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="C51">
         <v>386.28646501812449</v>
@@ -2409,24 +2256,21 @@
         <v>0.26432018984292721</v>
       </c>
       <c r="N51">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O51">
+        <v>3378083</v>
+      </c>
+      <c r="P51">
         <v>140408.7998405121</v>
-      </c>
-      <c r="O51">
-        <v>0.49000000953674316</v>
-      </c>
-      <c r="P51">
-        <v>3378083</v>
-      </c>
-      <c r="Q51">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>33781</v>
+        <v>1513.883422851563</v>
       </c>
       <c r="B52">
-        <v>1513.883422851563</v>
+        <v>0.5</v>
       </c>
       <c r="C52">
         <v>2935.754438316987</v>
@@ -2438,116 +2282,110 @@
         <v>0.54062934785826355</v>
       </c>
       <c r="F52">
-        <v>0.58639471892483941</v>
+        <v>0.58636511648559841</v>
       </c>
       <c r="G52">
         <v>0.31491074864568841</v>
       </c>
       <c r="H52">
-        <v>0.092537225067345505</v>
+        <v>0.092566827506586499</v>
       </c>
       <c r="I52">
         <v>0.0061573073621266003</v>
       </c>
       <c r="J52">
-        <v>0.78223516172004082</v>
+        <v>0.78219043167765057</v>
       </c>
       <c r="K52">
         <v>0.0134826169018058</v>
       </c>
       <c r="L52">
-        <v>0.13139287609081959</v>
+        <v>0.13143760613320979</v>
       </c>
       <c r="M52">
         <v>0.072889345289507093</v>
       </c>
       <c r="N52">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O52">
+        <v>3378083</v>
+      </c>
+      <c r="P52">
         <v>143209.2650301301</v>
-      </c>
-      <c r="O52">
-        <v>0.5</v>
-      </c>
-      <c r="P52">
-        <v>3378083</v>
-      </c>
-      <c r="Q52">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>33781</v>
+        <v>4488</v>
       </c>
       <c r="B53">
-        <v>4488</v>
+        <v>0.50999999046325684</v>
       </c>
       <c r="C53">
         <v>6074.6539464011994</v>
       </c>
       <c r="D53">
-        <v>0.42328527870696547</v>
+        <v>0.42322607382848348</v>
       </c>
       <c r="E53">
-        <v>0.57671472129303458</v>
+        <v>0.57677392617151657</v>
       </c>
       <c r="F53">
-        <v>0.56259435777508071</v>
+        <v>0.5626535626535627</v>
       </c>
       <c r="G53">
-        <v>0.30031674609987857</v>
+        <v>0.30028714366063758</v>
       </c>
       <c r="H53">
-        <v>0.131375625351529</v>
+        <v>0.131346022912288</v>
       </c>
       <c r="I53">
         <v>0.0057132707735117003</v>
       </c>
       <c r="J53">
-        <v>0.76116776228151506</v>
+        <v>0.76118937938458497</v>
       </c>
       <c r="K53">
         <v>0.0148652094911613</v>
       </c>
       <c r="L53">
-        <v>0.18932712067537449</v>
+        <v>0.18930550357230461</v>
       </c>
       <c r="M53">
         <v>0.034639907548259297</v>
       </c>
       <c r="N53">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O53">
+        <v>3378083</v>
+      </c>
+      <c r="P53">
         <v>146072.00530132742</v>
-      </c>
-      <c r="O53">
-        <v>0.50999999046325684</v>
-      </c>
-      <c r="P53">
-        <v>3378083</v>
-      </c>
-      <c r="Q53">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>33781</v>
+        <v>7826</v>
       </c>
       <c r="B54">
-        <v>7826</v>
+        <v>0.51999998092651367</v>
       </c>
       <c r="C54">
         <v>9506.114418645675</v>
       </c>
       <c r="D54">
-        <v>0.4063230810218762</v>
+        <v>0.40638228590035819</v>
       </c>
       <c r="E54">
-        <v>0.5936769189781238</v>
+        <v>0.59361771409964181</v>
       </c>
       <c r="F54">
-        <v>0.52861075752642017</v>
+        <v>0.52858115508717918</v>
       </c>
       <c r="G54">
-        <v>0.31633166572925608</v>
+        <v>0.31636126816849708</v>
       </c>
       <c r="H54">
         <v>0.14937390841005299</v>
@@ -2568,42 +2406,39 @@
         <v>0.026991852394685999</v>
       </c>
       <c r="N54">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O54">
+        <v>3378083</v>
+      </c>
+      <c r="P54">
         <v>148988.63297650591</v>
-      </c>
-      <c r="O54">
-        <v>0.51999998092651367</v>
-      </c>
-      <c r="P54">
-        <v>3378083</v>
-      </c>
-      <c r="Q54">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33780</v>
+        <v>11214</v>
       </c>
       <c r="B55">
-        <v>11214</v>
+        <v>0.52999997138977051</v>
       </c>
       <c r="C55">
         <v>13109.659272718231</v>
       </c>
       <c r="D55">
-        <v>0.45674955595026651</v>
+        <v>0.45671995263469511</v>
       </c>
       <c r="E55">
-        <v>0.54325044404973355</v>
+        <v>0.543280047365305</v>
       </c>
       <c r="F55">
         <v>0.54878626406157494</v>
       </c>
       <c r="G55">
-        <v>0.29621077560686798</v>
+        <v>0.29624037892243932</v>
       </c>
       <c r="H55">
-        <v>0.14890467732386031</v>
+        <v>0.14887507400828889</v>
       </c>
       <c r="I55">
         <v>0.0060982830076968999</v>
@@ -2621,42 +2456,39 @@
         <v>0.026365399056791101</v>
       </c>
       <c r="N55">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O55">
+        <v>3378083</v>
+      </c>
+      <c r="P55">
         <v>151956.36296004374</v>
-      </c>
-      <c r="O55">
-        <v>0.52999997138977051</v>
-      </c>
-      <c r="P55">
-        <v>3378083</v>
-      </c>
-      <c r="Q55">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>33781</v>
+        <v>15285</v>
       </c>
       <c r="B56">
-        <v>15285</v>
+        <v>0.54000002145767212</v>
       </c>
       <c r="C56">
         <v>17200.608482590531</v>
       </c>
       <c r="D56">
-        <v>0.44184600811106828</v>
+        <v>0.44187561055030927</v>
       </c>
       <c r="E56">
-        <v>0.55815399188893167</v>
+        <v>0.55812438944969067</v>
       </c>
       <c r="F56">
         <v>0.50264941831206889</v>
       </c>
       <c r="G56">
-        <v>0.29125839969213457</v>
+        <v>0.29122879725289358</v>
       </c>
       <c r="H56">
-        <v>0.20037891122228471</v>
+        <v>0.20040851366152571</v>
       </c>
       <c r="I56">
         <v>0.0057132707735117003</v>
@@ -2674,24 +2506,21 @@
         <v>0.025160925342467399</v>
       </c>
       <c r="N56">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O56">
+        <v>3378083</v>
+      </c>
+      <c r="P56">
         <v>154974.69574887678</v>
-      </c>
-      <c r="O56">
-        <v>0.54000002145767212</v>
-      </c>
-      <c r="P56">
-        <v>3378083</v>
-      </c>
-      <c r="Q56">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>33781</v>
+        <v>19171</v>
       </c>
       <c r="B57">
-        <v>19171</v>
+        <v>0.55000001192092896</v>
       </c>
       <c r="C57">
         <v>21119.62115289706</v>
@@ -2727,130 +2556,121 @@
         <v>0.0219199718643159</v>
       </c>
       <c r="N57">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O57">
+        <v>3378083</v>
+      </c>
+      <c r="P57">
         <v>158036.35824504812</v>
-      </c>
-      <c r="O57">
-        <v>0.55000001192092896</v>
-      </c>
-      <c r="P57">
-        <v>3378083</v>
-      </c>
-      <c r="Q57">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>33781</v>
+        <v>23071</v>
       </c>
       <c r="B58">
-        <v>23071</v>
+        <v>0.56000000238418579</v>
       </c>
       <c r="C58">
         <v>24921.250675132189</v>
       </c>
       <c r="D58">
-        <v>0.40596785175098432</v>
+        <v>0.40590864687250228</v>
       </c>
       <c r="E58">
-        <v>0.59403214824901573</v>
+        <v>0.59409135312749772</v>
       </c>
       <c r="F58">
-        <v>0.46730410585832272</v>
+        <v>0.46727450341908172</v>
       </c>
       <c r="G58">
         <v>0.31556200230899029</v>
       </c>
       <c r="H58">
-        <v>0.21293034546046591</v>
+        <v>0.2129599478997069</v>
       </c>
       <c r="I58">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J58">
-        <v>0.7373186511837958</v>
+        <v>0.73728696557230511</v>
       </c>
       <c r="K58">
         <v>0.0128413384165068</v>
       </c>
       <c r="L58">
-        <v>0.22914124226407831</v>
+        <v>0.22917292787556889</v>
       </c>
       <c r="M58">
         <v>0.020698768142823901</v>
       </c>
       <c r="N58">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O58">
+        <v>3378083</v>
+      </c>
+      <c r="P58">
         <v>161148.11901818053</v>
-      </c>
-      <c r="O58">
-        <v>0.56000000238418579</v>
-      </c>
-      <c r="P58">
-        <v>3378083</v>
-      </c>
-      <c r="Q58">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>33781</v>
+        <v>26733</v>
       </c>
       <c r="B59">
-        <v>26733</v>
+        <v>0.56999999284744263</v>
       </c>
       <c r="C59">
         <v>28755.251877904739</v>
       </c>
       <c r="D59">
-        <v>0.43551108611349582</v>
+        <v>0.43557029099197769</v>
       </c>
       <c r="E59">
-        <v>0.56448891388650424</v>
+        <v>0.56442970900802225</v>
       </c>
       <c r="F59">
-        <v>0.48941712797134479</v>
+        <v>0.48944673041058578</v>
       </c>
       <c r="G59">
         <v>0.30241851928598917</v>
       </c>
       <c r="H59">
-        <v>0.20325034782866111</v>
+        <v>0.20322074538942009</v>
       </c>
       <c r="I59">
         <v>0.0049140049140049</v>
       </c>
       <c r="J59">
-        <v>0.72948202053870903</v>
+        <v>0.72950948143768179</v>
       </c>
       <c r="K59">
         <v>0.014703923069430301</v>
       </c>
       <c r="L59">
-        <v>0.23573503950882371</v>
+        <v>0.23570757860985109</v>
       </c>
       <c r="M59">
         <v>0.020079016894602199</v>
       </c>
       <c r="N59">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O59">
+        <v>3378083</v>
+      </c>
+      <c r="P59">
         <v>164316.20317183627</v>
-      </c>
-      <c r="O59">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="P59">
-        <v>3378083</v>
-      </c>
-      <c r="Q59">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>33781</v>
+        <v>30888</v>
       </c>
       <c r="B60">
-        <v>30888</v>
+        <v>0.57999998331069946</v>
       </c>
       <c r="C60">
         <v>32396.743076440431</v>
@@ -2886,145 +2706,136 @@
         <v>0.0123784888310877</v>
       </c>
       <c r="N60">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O60">
+        <v>3378083</v>
+      </c>
+      <c r="P60">
         <v>167543.86306866436</v>
-      </c>
-      <c r="O60">
-        <v>0.57999998331069946</v>
-      </c>
-      <c r="P60">
-        <v>3378083</v>
-      </c>
-      <c r="Q60">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>33780</v>
+        <v>33323</v>
       </c>
       <c r="B61">
-        <v>33323</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C61">
         <v>34847.943966589883</v>
       </c>
       <c r="D61">
-        <v>0.44893428063943158</v>
+        <v>0.4487862640615749</v>
       </c>
       <c r="E61">
-        <v>0.55106571936056836</v>
+        <v>0.55121373593842504</v>
       </c>
       <c r="F61">
         <v>0.38134991119005329</v>
       </c>
       <c r="G61">
-        <v>0.2294849023090586</v>
+        <v>0.2295441089402013</v>
       </c>
       <c r="H61">
-        <v>0.38484310242747188</v>
+        <v>0.38478389579632921</v>
       </c>
       <c r="I61">
         <v>0.0043220840734161997</v>
       </c>
       <c r="J61">
-        <v>0.56208606236463199</v>
+        <v>0.56207350336207429</v>
       </c>
       <c r="K61">
         <v>0.012974718793882701</v>
       </c>
       <c r="L61">
-        <v>0.40805651614515681</v>
+        <v>0.40806907514771451</v>
       </c>
       <c r="M61">
         <v>0.016882702694114599</v>
       </c>
       <c r="N61">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O61">
+        <v>3378083</v>
+      </c>
+      <c r="P61">
         <v>170840.15332764195</v>
-      </c>
-      <c r="O61">
-        <v>0.5899999737739563</v>
-      </c>
-      <c r="P61">
-        <v>3378083</v>
-      </c>
-      <c r="Q61">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>33781</v>
+        <v>36665</v>
       </c>
       <c r="B62">
-        <v>36665</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="C62">
         <v>38237.00399309153</v>
       </c>
       <c r="D62">
-        <v>0.47221811077232761</v>
+        <v>0.47239572540777358</v>
       </c>
       <c r="E62">
-        <v>0.52778188922767244</v>
+        <v>0.52760427459222647</v>
       </c>
       <c r="F62">
         <v>0.3827595393860454</v>
       </c>
       <c r="G62">
-        <v>0.2270803114176608</v>
+        <v>0.22699150409993779</v>
       </c>
       <c r="H62">
-        <v>0.38634143453420561</v>
+        <v>0.38643024185192859</v>
       </c>
       <c r="I62">
         <v>0.0038187146620882002</v>
       </c>
       <c r="J62">
-        <v>0.56569327236462907</v>
+        <v>0.56570471788640209</v>
       </c>
       <c r="K62">
         <v>0.0107424849323487</v>
       </c>
       <c r="L62">
-        <v>0.40758393421696543</v>
+        <v>0.40757248869519241</v>
       </c>
       <c r="M62">
         <v>0.015980308474503602</v>
       </c>
       <c r="N62">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O62">
+        <v>3378083</v>
+      </c>
+      <c r="P62">
         <v>174239.87553115262</v>
-      </c>
-      <c r="O62">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="P62">
-        <v>3378083</v>
-      </c>
-      <c r="Q62">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>33781</v>
+        <v>39835</v>
       </c>
       <c r="B63">
-        <v>39835</v>
+        <v>0.61000001430511475</v>
       </c>
       <c r="C63">
         <v>41474.150206014478</v>
       </c>
       <c r="D63">
-        <v>0.46259731801900478</v>
+        <v>0.46250851070128179</v>
       </c>
       <c r="E63">
-        <v>0.53740268198099517</v>
+        <v>0.53749148929871815</v>
       </c>
       <c r="F63">
-        <v>0.38450608330126401</v>
+        <v>0.38447648086202302</v>
       </c>
       <c r="G63">
-        <v>0.23036618217341109</v>
+        <v>0.23039578461265209</v>
       </c>
       <c r="H63">
         <v>0.38190106864805662</v>
@@ -3033,195 +2844,183 @@
         <v>0.0032266658772683002</v>
       </c>
       <c r="J63">
-        <v>0.56679106422381265</v>
+        <v>0.56676028990380911</v>
       </c>
       <c r="K63">
         <v>0.01139675022706</v>
       </c>
       <c r="L63">
-        <v>0.40575820228460752</v>
+        <v>0.40578897660461111</v>
       </c>
       <c r="M63">
         <v>0.016053983266591</v>
       </c>
       <c r="N63">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O63">
+        <v>3378083</v>
+      </c>
+      <c r="P63">
         <v>177727.14717628824</v>
-      </c>
-      <c r="O63">
-        <v>0.61000001430511475</v>
-      </c>
-      <c r="P63">
-        <v>3378083</v>
-      </c>
-      <c r="Q63">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>33781</v>
+        <v>43179</v>
       </c>
       <c r="B64">
-        <v>43179</v>
+        <v>0.62000000476837158</v>
       </c>
       <c r="C64">
         <v>44675.421915587722</v>
       </c>
       <c r="D64">
-        <v>0.47242532784701458</v>
+        <v>0.47236612296853259</v>
       </c>
       <c r="E64">
-        <v>0.52757467215298548</v>
+        <v>0.52763387703146747</v>
       </c>
       <c r="F64">
-        <v>0.31997276575589828</v>
+        <v>0.32020958526982618</v>
       </c>
       <c r="G64">
-        <v>0.22187028211124599</v>
+        <v>0.22169266747579999</v>
       </c>
       <c r="H64">
-        <v>0.45507829845179237</v>
+        <v>0.45501909357331038</v>
       </c>
       <c r="I64">
         <v>0.0030786536810633001</v>
       </c>
       <c r="J64">
-        <v>0.44580648319947508</v>
+        <v>0.44583505234813869</v>
       </c>
       <c r="K64">
         <v>0.0090421743153027007</v>
       </c>
       <c r="L64">
-        <v>0.53291096758354994</v>
+        <v>0.53288239843488638</v>
       </c>
       <c r="M64">
         <v>0.012240374909406699</v>
       </c>
       <c r="N64">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O64">
+        <v>3378083</v>
+      </c>
+      <c r="P64">
         <v>181312.77191241831</v>
-      </c>
-      <c r="O64">
-        <v>0.62000000476837158</v>
-      </c>
-      <c r="P64">
-        <v>3378083</v>
-      </c>
-      <c r="Q64">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>33781</v>
+        <v>45916</v>
       </c>
       <c r="B65">
-        <v>45916</v>
+        <v>0.62999999523162842</v>
       </c>
       <c r="C65">
         <v>46765.240499235893</v>
       </c>
       <c r="D65">
-        <v>0.47950031082561201</v>
+        <v>0.47911547911547908</v>
       </c>
       <c r="E65">
-        <v>0.52049968917438805</v>
+        <v>0.52088452088452086</v>
       </c>
       <c r="F65">
-        <v>0.34480921227909178</v>
+        <v>0.34602291228797261</v>
       </c>
       <c r="G65">
-        <v>0.31274977058109588</v>
+        <v>0.31280897545957792</v>
       </c>
       <c r="H65">
-        <v>0.34131612444865461</v>
+        <v>0.34004321956129191</v>
       </c>
       <c r="I65">
         <v>0.0011248926911578</v>
       </c>
       <c r="J65">
-        <v>0.19743927028142749</v>
+        <v>0.1973908444467127</v>
       </c>
       <c r="K65">
         <v>0.0034000845666184</v>
       </c>
       <c r="L65">
-        <v>0.7944746380577824</v>
+        <v>0.79452306389249727</v>
       </c>
       <c r="M65">
         <v>0.0046860070955041999</v>
       </c>
       <c r="N65">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O65">
+        <v>3378083</v>
+      </c>
+      <c r="P65">
         <v>185005.69394575161</v>
-      </c>
-      <c r="O65">
-        <v>0.62999999523162842</v>
-      </c>
-      <c r="P65">
-        <v>3378083</v>
-      </c>
-      <c r="Q65">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>33780</v>
+        <v>47130</v>
       </c>
       <c r="B66">
-        <v>47130</v>
+        <v>0.63999998569488525</v>
       </c>
       <c r="C66">
         <v>47656.6979917157</v>
       </c>
       <c r="D66">
-        <v>0.50145056246299591</v>
+        <v>0.50195381882770873</v>
       </c>
       <c r="E66">
-        <v>0.49854943753700409</v>
+        <v>0.49804618117229132</v>
       </c>
       <c r="F66">
-        <v>0.39982238010657201</v>
+        <v>0.39840142095914738</v>
       </c>
       <c r="G66">
-        <v>0.30476613380698642</v>
+        <v>0.30488454706927182</v>
       </c>
       <c r="H66">
-        <v>0.29328004736530489</v>
+        <v>0.29458259325044411</v>
       </c>
       <c r="I66">
         <v>0.0021314387211367998</v>
       </c>
       <c r="J66">
-        <v>0.36717744476288278</v>
+        <v>0.36722496615952332</v>
       </c>
       <c r="K66">
         <v>0.0070908881622365003</v>
       </c>
       <c r="L66">
-        <v>0.61692132135586852</v>
+        <v>0.61687379995922809</v>
       </c>
       <c r="M66">
         <v>0.0088103457240844008</v>
       </c>
       <c r="N66">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O66">
+        <v>3378083</v>
+      </c>
+      <c r="P66">
         <v>188845.72864484251</v>
-      </c>
-      <c r="O66">
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P66">
-        <v>3378083</v>
-      </c>
-      <c r="Q66">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>33781</v>
+        <v>49201</v>
       </c>
       <c r="B67">
-        <v>49201</v>
+        <v>0.64999997615814209</v>
       </c>
       <c r="C67">
         <v>49947.752094603842</v>
@@ -3233,48 +3032,45 @@
         <v>0.60921819957964529</v>
       </c>
       <c r="F67">
-        <v>0.19161658920695071</v>
+        <v>0.19158698676770969</v>
       </c>
       <c r="G67">
         <v>0.12974749119327431</v>
       </c>
       <c r="H67">
-        <v>0.67736301471241234</v>
+        <v>0.67739261715165333</v>
       </c>
       <c r="I67">
         <v>0.0012729048873627001</v>
       </c>
       <c r="J67">
-        <v>0.31249309558189742</v>
+        <v>0.31246301826858408</v>
       </c>
       <c r="K67">
         <v>0.0047472957656083002</v>
       </c>
       <c r="L67">
-        <v>0.67649090453722249</v>
+        <v>0.67652098185053566</v>
       </c>
       <c r="M67">
         <v>0.0062687041266029997</v>
       </c>
       <c r="N67">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O67">
+        <v>3378083</v>
+      </c>
+      <c r="P67">
         <v>192879.60200451026</v>
-      </c>
-      <c r="O67">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="P67">
-        <v>3378083</v>
-      </c>
-      <c r="Q67">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>33781</v>
+        <v>50816</v>
       </c>
       <c r="B68">
-        <v>50816</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="C68">
         <v>52323.089921225132</v>
@@ -3286,57 +3082,54 @@
         <v>0.52215742577188362</v>
       </c>
       <c r="F68">
-        <v>0.37595097836061692</v>
+        <v>0.37598058079985791</v>
       </c>
       <c r="G68">
         <v>0.22986294070631419</v>
       </c>
       <c r="H68">
-        <v>0.3899825345608478</v>
+        <v>0.38995293212160681</v>
       </c>
       <c r="I68">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J68">
-        <v>0.57371604351187677</v>
+        <v>0.57374475539015657</v>
       </c>
       <c r="K68">
         <v>0.0108807211468548</v>
       </c>
       <c r="L68">
-        <v>0.40033879085602547</v>
+        <v>0.40031007897774568</v>
       </c>
       <c r="M68">
         <v>0.0150644444633027</v>
       </c>
       <c r="N68">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O68">
+        <v>3378083</v>
+      </c>
+      <c r="P68">
         <v>197083.50190404127</v>
-      </c>
-      <c r="O68">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="P68">
-        <v>3378083</v>
-      </c>
-      <c r="Q68">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>33781</v>
+        <v>54106</v>
       </c>
       <c r="B69">
-        <v>54106</v>
+        <v>0.67000001668930054</v>
       </c>
       <c r="C69">
         <v>55832.682509213759</v>
       </c>
       <c r="D69">
-        <v>0.50261981587282789</v>
+        <v>0.5025902134335869</v>
       </c>
       <c r="E69">
-        <v>0.49738018412717211</v>
+        <v>0.4974097865664131</v>
       </c>
       <c r="F69">
         <v>0.39693910778248132</v>
@@ -3363,77 +3156,71 @@
         <v>0.0133612731935013</v>
       </c>
       <c r="N69">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O69">
+        <v>3378083</v>
+      </c>
+      <c r="P69">
         <v>201470.2046654179</v>
-      </c>
-      <c r="O69">
-        <v>0.67000001668930054</v>
-      </c>
-      <c r="P69">
-        <v>3378083</v>
-      </c>
-      <c r="Q69">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>33781</v>
+        <v>57715</v>
       </c>
       <c r="B70">
-        <v>57715</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="C70">
         <v>59555.530344234743</v>
       </c>
       <c r="D70">
-        <v>0.5072377963944229</v>
+        <v>0.50729700127290489</v>
       </c>
       <c r="E70">
-        <v>0.4927622036055771</v>
+        <v>0.49270299872709511</v>
       </c>
       <c r="F70">
         <v>0.41597347621444009</v>
       </c>
       <c r="G70">
-        <v>0.24655871643823449</v>
+        <v>0.2464995115597525</v>
       </c>
       <c r="H70">
-        <v>0.33356028536751431</v>
+        <v>0.3336194902459963</v>
       </c>
       <c r="I70">
         <v>0.0039075219798111</v>
       </c>
       <c r="J70">
-        <v>0.63372278091432355</v>
+        <v>0.63369221196459213</v>
       </c>
       <c r="K70">
         <v>0.013689791175329201</v>
       </c>
       <c r="L70">
-        <v>0.33714782603380261</v>
+        <v>0.33717839498353402</v>
       </c>
       <c r="M70">
         <v>0.015439601871399301</v>
       </c>
       <c r="N70">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O70">
+        <v>3378083</v>
+      </c>
+      <c r="P70">
         <v>206021.40249402873</v>
-      </c>
-      <c r="O70">
-        <v>0.68000000715255737</v>
-      </c>
-      <c r="P70">
-        <v>3378083</v>
-      </c>
-      <c r="Q70">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>33781</v>
+        <v>61570</v>
       </c>
       <c r="B71">
-        <v>61570</v>
+        <v>0.68999999761581421</v>
       </c>
       <c r="C71">
         <v>63018.120963429887</v>
@@ -3448,45 +3235,42 @@
         <v>0.35383795624759479</v>
       </c>
       <c r="G71">
-        <v>0.2032799502679021</v>
+        <v>0.20333915514638409</v>
       </c>
       <c r="H71">
-        <v>0.43989224712116282</v>
+        <v>0.43983304224268083</v>
       </c>
       <c r="I71">
         <v>0.0029898463633403001</v>
       </c>
       <c r="J71">
-        <v>0.52907618072612894</v>
+        <v>0.5291050700358304</v>
       </c>
       <c r="K71">
         <v>0.011332584403003</v>
       </c>
       <c r="L71">
-        <v>0.4472649321218824</v>
+        <v>0.44723604281218082</v>
       </c>
       <c r="M71">
         <v>0.012326302745717201</v>
       </c>
       <c r="N71">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O71">
+        <v>3378083</v>
+      </c>
+      <c r="P71">
         <v>210746.13511762413</v>
-      </c>
-      <c r="O71">
-        <v>0.68999999761581421</v>
-      </c>
-      <c r="P71">
-        <v>3378083</v>
-      </c>
-      <c r="Q71">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>33780</v>
+        <v>64875</v>
       </c>
       <c r="B72">
-        <v>64875</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="C72">
         <v>66484.359760074381</v>
@@ -3501,113 +3285,107 @@
         <v>0.35953226761397278</v>
       </c>
       <c r="G72">
-        <v>0.21669626998223801</v>
+        <v>0.21672587329780929</v>
       </c>
       <c r="H72">
-        <v>0.42095914742451163</v>
+        <v>0.42092954410894018</v>
       </c>
       <c r="I72">
         <v>0.0028123149792776999</v>
       </c>
       <c r="J72">
-        <v>0.54919191499361386</v>
+        <v>0.54921729879546122</v>
       </c>
       <c r="K72">
         <v>0.010693415476942501</v>
       </c>
       <c r="L72">
-        <v>0.42929088667364818</v>
+        <v>0.42926550287180087</v>
       </c>
       <c r="M72">
         <v>0.0108237828658065</v>
       </c>
       <c r="N72">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O72">
+        <v>3378083</v>
+      </c>
+      <c r="P72">
         <v>215670.43141033361</v>
-      </c>
-      <c r="O72">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="P72">
-        <v>3378083</v>
-      </c>
-      <c r="Q72">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>33781</v>
+        <v>68062</v>
       </c>
       <c r="B73">
-        <v>68062</v>
+        <v>0.70999997854232788</v>
       </c>
       <c r="C73">
         <v>69680.863829010763</v>
       </c>
       <c r="D73">
-        <v>0.53894200882152687</v>
+        <v>0.53891240638228588</v>
       </c>
       <c r="E73">
-        <v>0.46105799117847313</v>
+        <v>0.46108759361771412</v>
       </c>
       <c r="F73">
-        <v>0.40365886149018682</v>
+        <v>0.40362925905094582</v>
       </c>
       <c r="G73">
         <v>0.23169829193925581</v>
       </c>
       <c r="H73">
-        <v>0.36174180752494012</v>
+        <v>0.36177140996418111</v>
       </c>
       <c r="I73">
         <v>0.0029010390456173998</v>
       </c>
       <c r="J73">
-        <v>0.61417318900593831</v>
+        <v>0.61414897036449911</v>
       </c>
       <c r="K73">
         <v>0.010820620376447701</v>
       </c>
       <c r="L73">
-        <v>0.36209303178310009</v>
+        <v>0.36211725042453929</v>
       </c>
       <c r="M73">
         <v>0.012913158829190899</v>
       </c>
       <c r="N73">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O73">
+        <v>3378083</v>
+      </c>
+      <c r="P73">
         <v>220814.65267882071</v>
-      </c>
-      <c r="O73">
-        <v>0.70999997854232788</v>
-      </c>
-      <c r="P73">
-        <v>3378083</v>
-      </c>
-      <c r="Q73">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>33781</v>
+        <v>71521</v>
       </c>
       <c r="B74">
-        <v>71521</v>
+        <v>0.72000002861022949</v>
       </c>
       <c r="C74">
         <v>73330.520103062736</v>
       </c>
       <c r="D74">
-        <v>0.54024451614813063</v>
+        <v>0.54027411858737162</v>
       </c>
       <c r="E74">
-        <v>0.45975548385186937</v>
+        <v>0.45972588141262838</v>
       </c>
       <c r="F74">
-        <v>0.40996418104851839</v>
+        <v>0.40999378348775939</v>
       </c>
       <c r="G74">
-        <v>0.2289156626506024</v>
+        <v>0.2288860602113614</v>
       </c>
       <c r="H74">
         <v>0.35795269530209289</v>
@@ -3628,33 +3406,30 @@
         <v>0.0118303260390196</v>
       </c>
       <c r="N74">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O74">
+        <v>3378083</v>
+      </c>
+      <c r="P74">
         <v>226212.31652774537</v>
-      </c>
-      <c r="O74">
-        <v>0.72000002861022949</v>
-      </c>
-      <c r="P74">
-        <v>3378083</v>
-      </c>
-      <c r="Q74">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>33781</v>
+        <v>75310</v>
       </c>
       <c r="B75">
-        <v>75310</v>
+        <v>0.73000001907348633</v>
       </c>
       <c r="C75">
         <v>77158.759882820596</v>
       </c>
       <c r="D75">
-        <v>0.52082531600603887</v>
+        <v>0.52079571356679788</v>
       </c>
       <c r="E75">
-        <v>0.47917468399396113</v>
+        <v>0.47920428643320212</v>
       </c>
       <c r="F75">
         <v>0.38080577839613983</v>
@@ -3681,145 +3456,136 @@
         <v>0.0129619585679234</v>
       </c>
       <c r="N75">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O75">
+        <v>3378083</v>
+      </c>
+      <c r="P75">
         <v>231874.63632467392</v>
-      </c>
-      <c r="O75">
-        <v>0.73000001907348633</v>
-      </c>
-      <c r="P75">
-        <v>3378083</v>
-      </c>
-      <c r="Q75">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>33781</v>
+        <v>79102</v>
       </c>
       <c r="B76">
-        <v>79102</v>
+        <v>0.74000000953674316</v>
       </c>
       <c r="C76">
         <v>81029.566179259418</v>
       </c>
       <c r="D76">
-        <v>0.52710103312512946</v>
+        <v>0.52701222580740648</v>
       </c>
       <c r="E76">
-        <v>0.47289896687487049</v>
+        <v>0.47298777419259352</v>
       </c>
       <c r="F76">
         <v>0.3840324442734081</v>
       </c>
       <c r="G76">
-        <v>0.21523933572126339</v>
+        <v>0.21520973328202239</v>
       </c>
       <c r="H76">
-        <v>0.39791598827743407</v>
+        <v>0.39794559071667512</v>
       </c>
       <c r="I76">
         <v>0.0028122317278943998</v>
       </c>
       <c r="J76">
-        <v>0.57876863475306017</v>
+        <v>0.57873824962090847</v>
       </c>
       <c r="K76">
         <v>0.0132746068295032</v>
       </c>
       <c r="L76">
-        <v>0.39362233128202911</v>
+        <v>0.39365271641418081</v>
       </c>
       <c r="M76">
         <v>0.0143344271554454</v>
       </c>
       <c r="N76">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O76">
+        <v>3378083</v>
+      </c>
+      <c r="P76">
         <v>237825.28083274377</v>
-      </c>
-      <c r="O76">
-        <v>0.74000000953674316</v>
-      </c>
-      <c r="P76">
-        <v>3378083</v>
-      </c>
-      <c r="Q76">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>33781</v>
+        <v>83248</v>
       </c>
       <c r="B77">
-        <v>83248</v>
+        <v>0.75</v>
       </c>
       <c r="C77">
         <v>85452.413043066001</v>
       </c>
       <c r="D77">
-        <v>0.52671620141499664</v>
+        <v>0.52680500873271963</v>
       </c>
       <c r="E77">
-        <v>0.47328379858500341</v>
+        <v>0.47319499126728037</v>
       </c>
       <c r="F77">
         <v>0.41958497380184129</v>
       </c>
       <c r="G77">
-        <v>0.23024777241644709</v>
+        <v>0.23027737485568811</v>
       </c>
       <c r="H77">
-        <v>0.34688138302596128</v>
+        <v>0.34685178058672028</v>
       </c>
       <c r="I77">
         <v>0.0032858707557503002</v>
       </c>
       <c r="J77">
-        <v>0.62443875009196681</v>
+        <v>0.62446756255013935</v>
       </c>
       <c r="K77">
         <v>0.015540223729088001</v>
       </c>
       <c r="L77">
-        <v>0.34517602407982628</v>
+        <v>0.34514721162165368</v>
       </c>
       <c r="M77">
         <v>0.014845002115413701</v>
       </c>
       <c r="N77">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O77">
+        <v>3378083</v>
+      </c>
+      <c r="P77">
         <v>244097.14655138791</v>
-      </c>
-      <c r="O77">
-        <v>0.75</v>
-      </c>
-      <c r="P77">
-        <v>3378083</v>
-      </c>
-      <c r="Q77">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>33780</v>
+        <v>87884</v>
       </c>
       <c r="B78">
-        <v>87884</v>
+        <v>0.75999999046325684</v>
       </c>
       <c r="C78">
         <v>90267.308171208919</v>
       </c>
       <c r="D78">
-        <v>0.51527531083481348</v>
+        <v>0.51524570751924215</v>
       </c>
       <c r="E78">
-        <v>0.48472468916518652</v>
+        <v>0.48475429248075791</v>
       </c>
       <c r="F78">
-        <v>0.4160746003552398</v>
+        <v>0.41604499703966852</v>
       </c>
       <c r="G78">
-        <v>0.23096506808762579</v>
+        <v>0.23099467140319721</v>
       </c>
       <c r="H78">
         <v>0.34976317347542918</v>
@@ -3840,77 +3606,71 @@
         <v>0.0149415737858481</v>
       </c>
       <c r="N78">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O78">
+        <v>3378083</v>
+      </c>
+      <c r="P78">
         <v>250707.38454739479</v>
-      </c>
-      <c r="O78">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="P78">
-        <v>3378083</v>
-      </c>
-      <c r="Q78">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>33781</v>
+        <v>92868</v>
       </c>
       <c r="B79">
-        <v>92868</v>
+        <v>0.76999998092651367</v>
       </c>
       <c r="C79">
         <v>95318.760198271586</v>
       </c>
       <c r="D79">
-        <v>0.50294544270447883</v>
+        <v>0.50297504514371982</v>
       </c>
       <c r="E79">
-        <v>0.49705455729552123</v>
+        <v>0.49702495485628018</v>
       </c>
       <c r="F79">
-        <v>0.39166987359758437</v>
+        <v>0.39172907847606642</v>
       </c>
       <c r="G79">
-        <v>0.226340250436636</v>
+        <v>0.226310647997395</v>
       </c>
       <c r="H79">
-        <v>0.37823036618217343</v>
+        <v>0.37820076374293238</v>
       </c>
       <c r="I79">
         <v>0.0037595097836062002</v>
       </c>
       <c r="J79">
-        <v>0.59784638243597987</v>
+        <v>0.59787676290893488</v>
       </c>
       <c r="K79">
         <v>0.016043441646872301</v>
       </c>
       <c r="L79">
-        <v>0.37131447932610412</v>
+        <v>0.37128409885314911</v>
       </c>
       <c r="M79">
         <v>0.0147956965823155</v>
       </c>
       <c r="N79">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O79">
+        <v>3378083</v>
+      </c>
+      <c r="P79">
         <v>257682.86945713594</v>
-      </c>
-      <c r="O79">
-        <v>0.76999998092651367</v>
-      </c>
-      <c r="P79">
-        <v>3378083</v>
-      </c>
-      <c r="Q79">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>33781</v>
+        <v>97903</v>
       </c>
       <c r="B80">
-        <v>97903</v>
+        <v>0.77999997138977051</v>
       </c>
       <c r="C80">
         <v>100440.0478592811</v>
@@ -3922,48 +3682,45 @@
         <v>0.49243657677392622</v>
       </c>
       <c r="F80">
-        <v>0.38219709304046651</v>
+        <v>0.38216749060122562</v>
       </c>
       <c r="G80">
         <v>0.23015896509872411</v>
       </c>
       <c r="H80">
-        <v>0.38344039548858833</v>
+        <v>0.38346999792782932</v>
       </c>
       <c r="I80">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J80">
-        <v>0.59292337992764044</v>
+        <v>0.59289454850951562</v>
       </c>
       <c r="K80">
         <v>0.016565225415477201</v>
       </c>
       <c r="L80">
-        <v>0.37573881149228799</v>
+        <v>0.37576764291041292</v>
       </c>
       <c r="M80">
         <v>0.014772583176885099</v>
       </c>
       <c r="N80">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O80">
+        <v>3378083</v>
+      </c>
+      <c r="P80">
         <v>265063.09596394008</v>
-      </c>
-      <c r="O80">
-        <v>0.77999997138977051</v>
-      </c>
-      <c r="P80">
-        <v>3378083</v>
-      </c>
-      <c r="Q80">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>33781</v>
+        <v>103248</v>
       </c>
       <c r="B81">
-        <v>103248</v>
+        <v>0.79000002145767212</v>
       </c>
       <c r="C81">
         <v>106135.6145292935</v>
@@ -3999,24 +3756,21 @@
         <v>0.016466357669471399</v>
       </c>
       <c r="N81">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O81">
+        <v>3378083</v>
+      </c>
+      <c r="P81">
         <v>272902.3329328355</v>
-      </c>
-      <c r="O81">
-        <v>0.79000002145767212</v>
-      </c>
-      <c r="P81">
-        <v>3378083</v>
-      </c>
-      <c r="Q81">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>33781</v>
+        <v>109323</v>
       </c>
       <c r="B82">
-        <v>109323</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="C82">
         <v>112535.5687098054</v>
@@ -4052,130 +3806,121 @@
         <v>0.016200739186107701</v>
       </c>
       <c r="N82">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O82">
+        <v>3378083</v>
+      </c>
+      <c r="P82">
         <v>281240.71822032135</v>
-      </c>
-      <c r="O82">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="P82">
-        <v>3378083</v>
-      </c>
-      <c r="Q82">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>33781</v>
+        <v>115973.6875</v>
       </c>
       <c r="B83">
-        <v>115973.6875</v>
+        <v>0.81000000238418579</v>
       </c>
       <c r="C83">
         <v>119390.52331885901</v>
       </c>
       <c r="D83">
-        <v>0.53911962345697284</v>
+        <v>0.53914922589621384</v>
       </c>
       <c r="E83">
-        <v>0.46088037654302721</v>
+        <v>0.46085077410378622</v>
       </c>
       <c r="F83">
-        <v>0.41058583227257928</v>
+        <v>0.41061543471182033</v>
       </c>
       <c r="G83">
         <v>0.26751724342085792</v>
       </c>
       <c r="H83">
-        <v>0.31869986086853558</v>
+        <v>0.31867025842929458</v>
       </c>
       <c r="I83">
         <v>0.0031970634380273002</v>
       </c>
       <c r="J83">
-        <v>0.66367152048228395</v>
+        <v>0.663685326132608</v>
       </c>
       <c r="K83">
         <v>0.018512134747568701</v>
       </c>
       <c r="L83">
-        <v>0.30086263260437113</v>
+        <v>0.30084882695404708</v>
       </c>
       <c r="M83">
         <v>0.016953712184164301</v>
       </c>
       <c r="N83">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O83">
+        <v>3378083</v>
+      </c>
+      <c r="P83">
         <v>290119.99195206666</v>
-      </c>
-      <c r="O83">
-        <v>0.81000000238418579</v>
-      </c>
-      <c r="P83">
-        <v>3378083</v>
-      </c>
-      <c r="Q83">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>33780</v>
+        <v>122998</v>
       </c>
       <c r="B84">
-        <v>122998</v>
+        <v>0.81999999284744263</v>
       </c>
       <c r="C84">
         <v>126508.9924412097</v>
       </c>
       <c r="D84">
-        <v>0.53037300177619895</v>
+        <v>0.53034339846062761</v>
       </c>
       <c r="E84">
-        <v>0.46962699822380111</v>
+        <v>0.46965660153937239</v>
       </c>
       <c r="F84">
-        <v>0.40337477797513321</v>
+        <v>0.40334517465956188</v>
       </c>
       <c r="G84">
         <v>0.27608052101835412</v>
       </c>
       <c r="H84">
-        <v>0.31699230313795151</v>
+        <v>0.31702190645352279</v>
       </c>
       <c r="I84">
         <v>0.0035523978685612998</v>
       </c>
       <c r="J84">
-        <v>0.66687932275723927</v>
+        <v>0.66686629354422278</v>
       </c>
       <c r="K84">
         <v>0.019851380673368599</v>
       </c>
       <c r="L84">
-        <v>0.29659152221322599</v>
+        <v>0.29660455142624242</v>
       </c>
       <c r="M84">
         <v>0.016677774374726201</v>
       </c>
       <c r="N84">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O84">
+        <v>3378083</v>
+      </c>
+      <c r="P84">
         <v>299605.02482726914</v>
-      </c>
-      <c r="O84">
-        <v>0.81999999284744263</v>
-      </c>
-      <c r="P84">
-        <v>3378083</v>
-      </c>
-      <c r="Q84">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>33781</v>
+        <v>130279</v>
       </c>
       <c r="B85">
-        <v>130279</v>
+        <v>0.82999998331069946</v>
       </c>
       <c r="C85">
         <v>133993.91233746411</v>
@@ -4211,24 +3956,21 @@
         <v>0.017485731758372099</v>
       </c>
       <c r="N85">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O85">
+        <v>3378083</v>
+      </c>
+      <c r="P85">
         <v>309786.89615350205</v>
-      </c>
-      <c r="O85">
-        <v>0.82999998331069946</v>
-      </c>
-      <c r="P85">
-        <v>3378083</v>
-      </c>
-      <c r="Q85">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>33781</v>
+        <v>138063</v>
       </c>
       <c r="B86">
-        <v>138063</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="C86">
         <v>142290.9107680723</v>
@@ -4264,24 +4006,21 @@
         <v>0.019359657115500601</v>
       </c>
       <c r="N86">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O86">
+        <v>3378083</v>
+      </c>
+      <c r="P86">
         <v>320774.01862555923</v>
-      </c>
-      <c r="O86">
-        <v>0.8399999737739563</v>
-      </c>
-      <c r="P86">
-        <v>3378083</v>
-      </c>
-      <c r="Q86">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>33781</v>
+        <v>146839</v>
       </c>
       <c r="B87">
-        <v>146839</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="C87">
         <v>151293.32114761259</v>
@@ -4293,10 +4032,10 @@
         <v>0.46016991800124329</v>
       </c>
       <c r="F87">
-        <v>0.37053373197951511</v>
+        <v>0.37056333441875611</v>
       </c>
       <c r="G87">
-        <v>0.30576359492022143</v>
+        <v>0.30573399248098038</v>
       </c>
       <c r="H87">
         <v>0.31958793404576541</v>
@@ -4317,24 +4056,21 @@
         <v>0.0193781599101472</v>
       </c>
       <c r="N87">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O87">
+        <v>3378083</v>
+      </c>
+      <c r="P87">
         <v>332672.96293028019</v>
-      </c>
-      <c r="O87">
-        <v>0.85000002384185791</v>
-      </c>
-      <c r="P87">
-        <v>3378083</v>
-      </c>
-      <c r="Q87">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>33781</v>
+        <v>156060</v>
       </c>
       <c r="B88">
-        <v>156060</v>
+        <v>0.86000001430511475</v>
       </c>
       <c r="C88">
         <v>160855.3279927141</v>
@@ -4346,10 +4082,10 @@
         <v>0.45803854237589181</v>
       </c>
       <c r="F88">
-        <v>0.36052810751605929</v>
+        <v>0.36049850507681841</v>
       </c>
       <c r="G88">
-        <v>0.30869423640507981</v>
+        <v>0.30872383884432081</v>
       </c>
       <c r="H88">
         <v>0.32707735117373671</v>
@@ -4370,24 +4106,21 @@
         <v>0.015879327302141401</v>
       </c>
       <c r="N88">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O88">
+        <v>3378083</v>
+      </c>
+      <c r="P88">
         <v>345628.73381241795</v>
-      </c>
-      <c r="O88">
-        <v>0.86000001430511475</v>
-      </c>
-      <c r="P88">
-        <v>3378083</v>
-      </c>
-      <c r="Q88">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>33781</v>
+        <v>166010.953125</v>
       </c>
       <c r="B89">
-        <v>166010.953125</v>
+        <v>0.87000000476837158</v>
       </c>
       <c r="C89">
         <v>171054.2373130421</v>
@@ -4423,24 +4156,21 @@
         <v>0.0166661445762048</v>
       </c>
       <c r="N89">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O89">
+        <v>3378083</v>
+      </c>
+      <c r="P89">
         <v>359842.169818328</v>
-      </c>
-      <c r="O89">
-        <v>0.87000000476837158</v>
-      </c>
-      <c r="P89">
-        <v>3378083</v>
-      </c>
-      <c r="Q89">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>33780</v>
+        <v>176468.75</v>
       </c>
       <c r="B90">
-        <v>176468.75</v>
+        <v>0.87999999523162842</v>
       </c>
       <c r="C90">
         <v>182075.46210405571</v>
@@ -4476,24 +4206,21 @@
         <v>0.020428176779154501</v>
       </c>
       <c r="N90">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O90">
+        <v>3378083</v>
+      </c>
+      <c r="P90">
         <v>375574.61395678227</v>
-      </c>
-      <c r="O90">
-        <v>0.87999999523162842</v>
-      </c>
-      <c r="P90">
-        <v>3378083</v>
-      </c>
-      <c r="Q90">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>33781</v>
+        <v>188085.90625</v>
       </c>
       <c r="B91">
-        <v>188085.90625</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="C91">
         <v>194091.47687170669</v>
@@ -4529,24 +4256,21 @@
         <v>0.0225816743022095</v>
       </c>
       <c r="N91">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O91">
+        <v>3378083</v>
+      </c>
+      <c r="P91">
         <v>393165.01988802647</v>
-      </c>
-      <c r="O91">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="P91">
-        <v>3378083</v>
-      </c>
-      <c r="Q91">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>33781</v>
+        <v>200316.09375</v>
       </c>
       <c r="B92">
-        <v>200316.09375</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="C92">
         <v>206497.83307508289</v>
@@ -4582,24 +4306,21 @@
         <v>0.0232678825289412</v>
       </c>
       <c r="N92">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O92">
+        <v>3378083</v>
+      </c>
+      <c r="P92">
         <v>413072.49205160548</v>
-      </c>
-      <c r="O92">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="P92">
-        <v>3378083</v>
-      </c>
-      <c r="Q92">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>33781</v>
+        <v>213505.5625</v>
       </c>
       <c r="B93">
-        <v>213505.5625</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="C93">
         <v>220930.80696665659</v>
@@ -4635,24 +4356,21 @@
         <v>0.023486445647534299</v>
       </c>
       <c r="N93">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O93">
+        <v>3378083</v>
+      </c>
+      <c r="P93">
         <v>436025.38292934303</v>
-      </c>
-      <c r="O93">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="P93">
-        <v>3378083</v>
-      </c>
-      <c r="Q93">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>33781</v>
+        <v>228800.453125</v>
       </c>
       <c r="B94">
-        <v>228800.453125</v>
+        <v>0.92000001668930054</v>
       </c>
       <c r="C94">
         <v>237368.4683808946</v>
@@ -4688,24 +4406,21 @@
         <v>0.024330287687924002</v>
       </c>
       <c r="N94">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O94">
+        <v>3378083</v>
+      </c>
+      <c r="P94">
         <v>462912.40390503005</v>
-      </c>
-      <c r="O94">
-        <v>0.92000001668930054</v>
-      </c>
-      <c r="P94">
-        <v>3378083</v>
-      </c>
-      <c r="Q94">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>33781</v>
+        <v>246707.25</v>
       </c>
       <c r="B95">
-        <v>246707.25</v>
+        <v>0.93000000715255737</v>
       </c>
       <c r="C95">
         <v>257461.26765230461</v>
@@ -4741,24 +4456,21 @@
         <v>0.0276657096128895</v>
       </c>
       <c r="N95">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O95">
+        <v>3378083</v>
+      </c>
+      <c r="P95">
         <v>495133.23864142154</v>
-      </c>
-      <c r="O95">
-        <v>0.93000000715255737</v>
-      </c>
-      <c r="P95">
-        <v>3378083</v>
-      </c>
-      <c r="Q95">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>33780</v>
+        <v>268998.1875</v>
       </c>
       <c r="B96">
-        <v>268998.1875</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="C96">
         <v>281026.12096284778</v>
@@ -4794,24 +4506,21 @@
         <v>0.027833745705534801</v>
       </c>
       <c r="N96">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O96">
+        <v>3378083</v>
+      </c>
+      <c r="P96">
         <v>534745.6246806914</v>
-      </c>
-      <c r="O96">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="P96">
-        <v>3378083</v>
-      </c>
-      <c r="Q96">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>33781</v>
+        <v>294446.9375</v>
       </c>
       <c r="B97">
-        <v>294446.9375</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="C97">
         <v>311765.02914730168</v>
@@ -4847,24 +4556,21 @@
         <v>0.0345991970336606</v>
       </c>
       <c r="N97">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O97">
+        <v>3378083</v>
+      </c>
+      <c r="P97">
         <v>585488.32370255445</v>
-      </c>
-      <c r="O97">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="P97">
-        <v>3378083</v>
-      </c>
-      <c r="Q97">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>33781</v>
+        <v>331247.3125</v>
       </c>
       <c r="B98">
-        <v>331247.3125</v>
+        <v>0.95999997854232788</v>
       </c>
       <c r="C98">
         <v>356142.03739065601</v>
@@ -4900,24 +4606,21 @@
         <v>0.040785278991606097</v>
       </c>
       <c r="N98">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O98">
+        <v>3378083</v>
+      </c>
+      <c r="P98">
         <v>653919.65377494029</v>
-      </c>
-      <c r="O98">
-        <v>0.95999997854232788</v>
-      </c>
-      <c r="P98">
-        <v>3378083</v>
-      </c>
-      <c r="Q98">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>33781</v>
+        <v>383911.5</v>
       </c>
       <c r="B99">
-        <v>383911.5</v>
+        <v>0.97000002861022949</v>
       </c>
       <c r="C99">
         <v>421053.28221670468</v>
@@ -4953,24 +4656,21 @@
         <v>0.050031161971519897</v>
       </c>
       <c r="N99">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O99">
+        <v>3378083</v>
+      </c>
+      <c r="P99">
         <v>753179.83868423256</v>
-      </c>
-      <c r="O99">
-        <v>0.97000002861022949</v>
-      </c>
-      <c r="P99">
-        <v>3378083</v>
-      </c>
-      <c r="Q99">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>33781</v>
+        <v>469124</v>
       </c>
       <c r="B100">
-        <v>469124</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="C100">
         <v>544691.85909238923</v>
@@ -5006,24 +4706,21 @@
         <v>0.066067701864500006</v>
       </c>
       <c r="N100">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O100">
+        <v>3378083</v>
+      </c>
+      <c r="P100">
         <v>919245.57489342964</v>
-      </c>
-      <c r="O100">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="P100">
-        <v>3378083</v>
-      </c>
-      <c r="Q100">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>3378</v>
+        <v>644656.4375</v>
       </c>
       <c r="B101">
-        <v>644656.4375</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="C101">
         <v>659011.76278493193</v>
@@ -5059,24 +4756,21 @@
         <v>0.082835194970752105</v>
       </c>
       <c r="N101">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O101">
+        <v>3378083</v>
+      </c>
+      <c r="P101">
         <v>1293810.3787263173</v>
-      </c>
-      <c r="O101">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="P101">
-        <v>3378083</v>
-      </c>
-      <c r="Q101">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>3378</v>
+        <v>674876</v>
       </c>
       <c r="B102">
-        <v>674876</v>
+        <v>0.99099999666213989</v>
       </c>
       <c r="C102">
         <v>691317.58146462403</v>
@@ -5112,24 +4806,21 @@
         <v>0.091364988385992996</v>
       </c>
       <c r="N102">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O102">
+        <v>3378083</v>
+      </c>
+      <c r="P102">
         <v>1364343.5582753601</v>
-      </c>
-      <c r="O102">
-        <v>0.99099999666213989</v>
-      </c>
-      <c r="P102">
-        <v>3378083</v>
-      </c>
-      <c r="Q102">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>3378</v>
+        <v>709093.125</v>
       </c>
       <c r="B103">
-        <v>709093.125</v>
+        <v>0.99199998378753662</v>
       </c>
       <c r="C103">
         <v>729650.80126924219</v>
@@ -5165,24 +4856,21 @@
         <v>0.095593527408078194</v>
       </c>
       <c r="N103">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O103">
+        <v>3378083</v>
+      </c>
+      <c r="P103">
         <v>1448471.8053767022</v>
-      </c>
-      <c r="O103">
-        <v>0.99199998378753662</v>
-      </c>
-      <c r="P103">
-        <v>3378083</v>
-      </c>
-      <c r="Q103">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>3378</v>
+        <v>751652.4375</v>
       </c>
       <c r="B104">
-        <v>751652.4375</v>
+        <v>0.99299997091293335</v>
       </c>
       <c r="C104">
         <v>776363.53023238608</v>
@@ -5218,24 +4906,21 @@
         <v>0.093132909165908898</v>
       </c>
       <c r="N104">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O104">
+        <v>3378083</v>
+      </c>
+      <c r="P104">
         <v>1551160.5202491966</v>
-      </c>
-      <c r="O104">
-        <v>0.99299997091293335</v>
-      </c>
-      <c r="P104">
-        <v>3378083</v>
-      </c>
-      <c r="Q104">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>3378</v>
+        <v>802636.4375</v>
       </c>
       <c r="B105">
-        <v>802636.4375</v>
+        <v>0.99400001764297485</v>
       </c>
       <c r="C105">
         <v>832458.05652383063</v>
@@ -5271,24 +4956,21 @@
         <v>0.1090204927602331</v>
       </c>
       <c r="N105">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O105">
+        <v>3378083</v>
+      </c>
+      <c r="P105">
         <v>1680293.351918665</v>
-      </c>
-      <c r="O105">
-        <v>0.99400001764297485</v>
-      </c>
-      <c r="P105">
-        <v>3378083</v>
-      </c>
-      <c r="Q105">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>3378</v>
+        <v>867248.3125</v>
       </c>
       <c r="B106">
-        <v>867248.3125</v>
+        <v>0.99500000476837158</v>
       </c>
       <c r="C106">
         <v>911957.68524274719</v>
@@ -5324,24 +5006,21 @@
         <v>0.12990866041989291</v>
       </c>
       <c r="N106">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O106">
+        <v>3378083</v>
+      </c>
+      <c r="P106">
         <v>1849860.4109976317</v>
-      </c>
-      <c r="O106">
-        <v>0.99500000476837158</v>
-      </c>
-      <c r="P106">
-        <v>3378083</v>
-      </c>
-      <c r="Q106">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>3378</v>
+        <v>961793.25</v>
       </c>
       <c r="B107">
-        <v>961793.25</v>
+        <v>0.99599999189376831</v>
       </c>
       <c r="C107">
         <v>1024362.669219953</v>
@@ -5377,24 +5056,21 @@
         <v>0.15280465310330191</v>
       </c>
       <c r="N107">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O107">
+        <v>3378083</v>
+      </c>
+      <c r="P107">
         <v>2084336.092436353</v>
-      </c>
-      <c r="O107">
-        <v>0.99599999189376831</v>
-      </c>
-      <c r="P107">
-        <v>3378083</v>
-      </c>
-      <c r="Q107">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>3378</v>
+        <v>1096870.625</v>
       </c>
       <c r="B108">
-        <v>1096870.625</v>
+        <v>0.99699997901916504</v>
       </c>
       <c r="C108">
         <v>1202598.832704263</v>
@@ -5430,24 +5106,21 @@
         <v>0.1649402051182568</v>
       </c>
       <c r="N108">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O108">
+        <v>3378083</v>
+      </c>
+      <c r="P108">
         <v>2437660.5668418198</v>
-      </c>
-      <c r="O108">
-        <v>0.99699997901916504</v>
-      </c>
-      <c r="P108">
-        <v>3378083</v>
-      </c>
-      <c r="Q108">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>3378</v>
+        <v>1333262.75</v>
       </c>
       <c r="B109">
-        <v>1333262.75</v>
+        <v>0.99800002574920654</v>
       </c>
       <c r="C109">
         <v>1568748.603352576</v>
@@ -5483,24 +5156,21 @@
         <v>0.2301952492995803</v>
       </c>
       <c r="N109">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O109">
+        <v>3378083</v>
+      </c>
+      <c r="P109">
         <v>3055191.433910598</v>
-      </c>
-      <c r="O109">
-        <v>0.99800002574920654</v>
-      </c>
-      <c r="P109">
-        <v>3378083</v>
-      </c>
-      <c r="Q109">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>338</v>
+        <v>1894554.25</v>
       </c>
       <c r="B110">
-        <v>1894554.25</v>
+        <v>0.99900001287460327</v>
       </c>
       <c r="C110">
         <v>1945029.4852071011</v>
@@ -5536,24 +5206,21 @@
         <v>0.2606363172509823</v>
       </c>
       <c r="N110">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O110">
+        <v>3378083</v>
+      </c>
+      <c r="P110">
         <v>4541634.2644686205</v>
-      </c>
-      <c r="O110">
-        <v>0.99900001287460327</v>
-      </c>
-      <c r="P110">
-        <v>3378083</v>
-      </c>
-      <c r="Q110">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>338</v>
+        <v>2000901.625</v>
       </c>
       <c r="B111">
-        <v>2000901.625</v>
+        <v>0.99910002946853638</v>
       </c>
       <c r="C111">
         <v>2056931.8457840241</v>
@@ -5589,24 +5256,21 @@
         <v>0.32743803054462689</v>
       </c>
       <c r="N111">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O111">
+        <v>3378083</v>
+      </c>
+      <c r="P111">
         <v>4830335.7168996707</v>
-      </c>
-      <c r="O111">
-        <v>0.99910002946853638</v>
-      </c>
-      <c r="P111">
-        <v>3378083</v>
-      </c>
-      <c r="Q111">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>338</v>
+        <v>2120530</v>
       </c>
       <c r="B112">
-        <v>2120530</v>
+        <v>0.99919998645782471</v>
       </c>
       <c r="C112">
         <v>2202609.8239644971</v>
@@ -5642,24 +5306,21 @@
         <v>0.27066981202748919</v>
       </c>
       <c r="N112">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O112">
+        <v>3378083</v>
+      </c>
+      <c r="P112">
         <v>5177267.8073649146</v>
-      </c>
-      <c r="O112">
-        <v>0.99919998645782471</v>
-      </c>
-      <c r="P112">
-        <v>3378083</v>
-      </c>
-      <c r="Q112">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>338</v>
+        <v>2291490.5</v>
       </c>
       <c r="B113">
-        <v>2291490.5</v>
+        <v>0.99930000305175781</v>
       </c>
       <c r="C113">
         <v>2377002.2507396452</v>
@@ -5695,24 +5356,21 @@
         <v>0.28934071245614801</v>
       </c>
       <c r="N113">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O113">
+        <v>3378083</v>
+      </c>
+      <c r="P113">
         <v>5602578.4665820645</v>
-      </c>
-      <c r="O113">
-        <v>0.99930000305175781</v>
-      </c>
-      <c r="P113">
-        <v>3378083</v>
-      </c>
-      <c r="Q113">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>337</v>
+        <v>2474893.5</v>
       </c>
       <c r="B114">
-        <v>2474893.5</v>
+        <v>0.99940001964569092</v>
       </c>
       <c r="C114">
         <v>2587860.448813057</v>
@@ -5748,24 +5406,21 @@
         <v>0.32989780393107182</v>
       </c>
       <c r="N114">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O114">
+        <v>3378083</v>
+      </c>
+      <c r="P114">
         <v>6140705.199531096</v>
-      </c>
-      <c r="O114">
-        <v>0.99940001964569092</v>
-      </c>
-      <c r="P114">
-        <v>3378083</v>
-      </c>
-      <c r="Q114">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>338</v>
+        <v>2709095.75</v>
       </c>
       <c r="B115">
-        <v>2709095.75</v>
+        <v>0.99949997663497925</v>
       </c>
       <c r="C115">
         <v>2860761.721153846</v>
@@ -5801,24 +5456,21 @@
         <v>0.36547220602972558</v>
       </c>
       <c r="N115">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O115">
+        <v>3378083</v>
+      </c>
+      <c r="P115">
         <v>6849591.3339253999</v>
-      </c>
-      <c r="O115">
-        <v>0.99949997663497925</v>
-      </c>
-      <c r="P115">
-        <v>3378083</v>
-      </c>
-      <c r="Q115">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>338</v>
+        <v>3053151.75</v>
       </c>
       <c r="B116">
-        <v>3053151.75</v>
+        <v>0.99959999322891235</v>
       </c>
       <c r="C116">
         <v>3287039.2670118338</v>
@@ -5854,24 +5506,21 @@
         <v>0.42808746119139057</v>
       </c>
       <c r="N116">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O116">
+        <v>3378083</v>
+      </c>
+      <c r="P116">
         <v>7847536.8625092525</v>
-      </c>
-      <c r="O116">
-        <v>0.99959999322891235</v>
-      </c>
-      <c r="P116">
-        <v>3378083</v>
-      </c>
-      <c r="Q116">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>338</v>
+        <v>3580218.5</v>
       </c>
       <c r="B117">
-        <v>3580218.5</v>
+        <v>0.99970000982284546</v>
       </c>
       <c r="C117">
         <v>3986136.173076923</v>
@@ -5907,24 +5556,21 @@
         <v>0.4919008491956457</v>
       </c>
       <c r="N117">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O117">
+        <v>3378083</v>
+      </c>
+      <c r="P117">
         <v>9369203.3849950638</v>
-      </c>
-      <c r="O117">
-        <v>0.99970000982284546</v>
-      </c>
-      <c r="P117">
-        <v>3378083</v>
-      </c>
-      <c r="Q117">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>338</v>
+        <v>4457617</v>
       </c>
       <c r="B118">
-        <v>4457617</v>
+        <v>0.99980002641677856</v>
       </c>
       <c r="C118">
         <v>5254528.2174556209</v>
@@ -5960,24 +5606,21 @@
         <v>0.5421888560496676</v>
       </c>
       <c r="N118">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O118">
+        <v>3378083</v>
+      </c>
+      <c r="P118">
         <v>12064724.448148148</v>
-      </c>
-      <c r="O118">
-        <v>0.99980002641677856</v>
-      </c>
-      <c r="P118">
-        <v>3378083</v>
-      </c>
-      <c r="Q118">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>34</v>
+        <v>6435485.5</v>
       </c>
       <c r="B119">
-        <v>6435485.5</v>
+        <v>0.99989998340606689</v>
       </c>
       <c r="C119">
         <v>6623677.9117647056</v>
@@ -6013,24 +5656,21 @@
         <v>0.69854340097505907</v>
       </c>
       <c r="N119">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O119">
+        <v>3378083</v>
+      </c>
+      <c r="P119">
         <v>18895128.976261128</v>
-      </c>
-      <c r="O119">
-        <v>0.99989998340606689</v>
-      </c>
-      <c r="P119">
-        <v>3378083</v>
-      </c>
-      <c r="Q119">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>33</v>
+        <v>6784775</v>
       </c>
       <c r="B120">
-        <v>6784775</v>
+        <v>0.99990999698638916</v>
       </c>
       <c r="C120">
         <v>7000456.2878787881</v>
@@ -6066,24 +5706,21 @@
         <v>0.60298790859595208</v>
       </c>
       <c r="N120">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O120">
+        <v>3378083</v>
+      </c>
+      <c r="P120">
         <v>20272123.485148516</v>
-      </c>
-      <c r="O120">
-        <v>0.99990999698638916</v>
-      </c>
-      <c r="P120">
-        <v>3378083</v>
-      </c>
-      <c r="Q120">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>34</v>
+        <v>7248288</v>
       </c>
       <c r="B121">
-        <v>7248288</v>
+        <v>0.99992001056671143</v>
       </c>
       <c r="C121">
         <v>7612461.0147058824</v>
@@ -6119,24 +5756,21 @@
         <v>0.68005817879913955</v>
       </c>
       <c r="N121">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O121">
+        <v>3378083</v>
+      </c>
+      <c r="P121">
         <v>21894216.142592594</v>
-      </c>
-      <c r="O121">
-        <v>0.99992001056671143</v>
-      </c>
-      <c r="P121">
-        <v>3378083</v>
-      </c>
-      <c r="Q121">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>34</v>
+        <v>8021964</v>
       </c>
       <c r="B122">
-        <v>8021964</v>
+        <v>0.99993002414703369</v>
       </c>
       <c r="C122">
         <v>8278859.0882352944</v>
@@ -6172,24 +5806,21 @@
         <v>0.72028032525036412</v>
       </c>
       <c r="N122">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O122">
+        <v>3378083</v>
+      </c>
+      <c r="P122">
         <v>23951757.135593221</v>
-      </c>
-      <c r="O122">
-        <v>0.99993002414703369</v>
-      </c>
-      <c r="P122">
-        <v>3378083</v>
-      </c>
-      <c r="Q122">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>34</v>
+        <v>8621221</v>
       </c>
       <c r="B123">
-        <v>8621221</v>
+        <v>0.99993997812271118</v>
       </c>
       <c r="C123">
         <v>9149660.1470588241</v>
@@ -6225,24 +5856,21 @@
         <v>0.69963264349463794</v>
       </c>
       <c r="N123">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O123">
+        <v>3378083</v>
+      </c>
+      <c r="P123">
         <v>26589769.678217821</v>
-      </c>
-      <c r="O123">
-        <v>0.99993997812271118</v>
-      </c>
-      <c r="P123">
-        <v>3378083</v>
-      </c>
-      <c r="Q123">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>33</v>
+        <v>9772439</v>
       </c>
       <c r="B124">
-        <v>9772439</v>
+        <v>0.99994999170303345</v>
       </c>
       <c r="C124">
         <v>10585556.42424242</v>
@@ -6278,24 +5906,21 @@
         <v>0.82814396688399439</v>
       </c>
       <c r="N124">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O124">
+        <v>3378083</v>
+      </c>
+      <c r="P124">
         <v>30119315.654761903</v>
-      </c>
-      <c r="O124">
-        <v>0.99994999170303345</v>
-      </c>
-      <c r="P124">
-        <v>3378083</v>
-      </c>
-      <c r="Q124">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>34</v>
+        <v>11786493</v>
       </c>
       <c r="B125">
-        <v>11786493</v>
+        <v>0.99996000528335571</v>
       </c>
       <c r="C125">
         <v>12617543.94117647</v>
@@ -6331,24 +5956,21 @@
         <v>0.81453426038886689</v>
       </c>
       <c r="N125">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O125">
+        <v>3378083</v>
+      </c>
+      <c r="P125">
         <v>34894234.577777781</v>
-      </c>
-      <c r="O125">
-        <v>0.99996000528335571</v>
-      </c>
-      <c r="P125">
-        <v>3378083</v>
-      </c>
-      <c r="Q125">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>34</v>
+        <v>13660579</v>
       </c>
       <c r="B126">
-        <v>13660579</v>
+        <v>0.99997001886367798</v>
       </c>
       <c r="C126">
         <v>15326068.411764709</v>
@@ -6384,24 +6006,21 @@
         <v>0.91937500364427982</v>
       </c>
       <c r="N126">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O126">
+        <v>3378083</v>
+      </c>
+      <c r="P126">
         <v>42393318.554455444</v>
-      </c>
-      <c r="O126">
-        <v>0.99997001886367798</v>
-      </c>
-      <c r="P126">
-        <v>3378083</v>
-      </c>
-      <c r="Q126">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>34</v>
+        <v>18558334</v>
       </c>
       <c r="B127">
-        <v>18558334</v>
+        <v>0.99997997283935547</v>
       </c>
       <c r="C127">
         <v>22786485.176470589</v>
@@ -6437,24 +6056,21 @@
         <v>0.84319761241417468</v>
       </c>
       <c r="N127">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O127">
+        <v>3378083</v>
+      </c>
+      <c r="P127">
         <v>56128938.029850744</v>
-      </c>
-      <c r="O127">
-        <v>0.99997997283935547</v>
-      </c>
-      <c r="P127">
-        <v>3378083</v>
-      </c>
-      <c r="Q127">
-        <v>71608.474202330355</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>33</v>
+        <v>27804761</v>
       </c>
       <c r="B128">
-        <v>27804761</v>
+        <v>0.99998998641967773</v>
       </c>
       <c r="C128">
         <v>90481768.24242425</v>
@@ -6490,16 +6106,13 @@
         <v>0.95809050861691702</v>
       </c>
       <c r="N128">
+        <v>71608.474202330355</v>
+      </c>
+      <c r="O128">
+        <v>3378083</v>
+      </c>
+      <c r="P128">
         <v>90481768.24242425</v>
-      </c>
-      <c r="O128">
-        <v>0.99998998641967773</v>
-      </c>
-      <c r="P128">
-        <v>3378083</v>
-      </c>
-      <c r="Q128">
-        <v>71608.474202330355</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/admin_data/URY/gpinter_URY_2009.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2009.xlsx
@@ -2285,22 +2285,22 @@
         <v>0.58636511648559841</v>
       </c>
       <c r="G52">
-        <v>0.31491074864568841</v>
+        <v>0.3149403510849294</v>
       </c>
       <c r="H52">
-        <v>0.092566827506586499</v>
+        <v>0.092537225067345505</v>
       </c>
       <c r="I52">
         <v>0.0061573073621266003</v>
       </c>
       <c r="J52">
-        <v>0.78219043167765057</v>
+        <v>0.78223516172004082</v>
       </c>
       <c r="K52">
         <v>0.0134826169018058</v>
       </c>
       <c r="L52">
-        <v>0.13143760613320979</v>
+        <v>0.13139287609081959</v>
       </c>
       <c r="M52">
         <v>0.072889345289507093</v>
@@ -2326,31 +2326,31 @@
         <v>6074.6539464011994</v>
       </c>
       <c r="D53">
-        <v>0.42322607382848348</v>
+        <v>0.42325567626772448</v>
       </c>
       <c r="E53">
-        <v>0.57677392617151657</v>
+        <v>0.57674432373227558</v>
       </c>
       <c r="F53">
         <v>0.5626535626535627</v>
       </c>
       <c r="G53">
-        <v>0.30028714366063758</v>
+        <v>0.30025754122139658</v>
       </c>
       <c r="H53">
-        <v>0.131346022912288</v>
+        <v>0.131375625351529</v>
       </c>
       <c r="I53">
         <v>0.0057132707735117003</v>
       </c>
       <c r="J53">
-        <v>0.76118937938458497</v>
+        <v>0.76116776228151506</v>
       </c>
       <c r="K53">
         <v>0.0148652094911613</v>
       </c>
       <c r="L53">
-        <v>0.18930550357230461</v>
+        <v>0.18932712067537449</v>
       </c>
       <c r="M53">
         <v>0.034639907548259297</v>
@@ -2382,10 +2382,10 @@
         <v>0.59361771409964181</v>
       </c>
       <c r="F54">
-        <v>0.52858115508717918</v>
+        <v>0.52861075752642017</v>
       </c>
       <c r="G54">
-        <v>0.31636126816849708</v>
+        <v>0.31633166572925608</v>
       </c>
       <c r="H54">
         <v>0.14937390841005299</v>
@@ -2394,13 +2394,13 @@
         <v>0.0056836683342706999</v>
       </c>
       <c r="J54">
-        <v>0.75066633341457256</v>
+        <v>0.75070108612292219</v>
       </c>
       <c r="K54">
         <v>0.013779784553747501</v>
       </c>
       <c r="L54">
-        <v>0.20856202962878551</v>
+        <v>0.20852727692043591</v>
       </c>
       <c r="M54">
         <v>0.026991852394685999</v>
@@ -2426,10 +2426,10 @@
         <v>13109.659272718231</v>
       </c>
       <c r="D55">
-        <v>0.45671995263469511</v>
+        <v>0.45666074600355239</v>
       </c>
       <c r="E55">
-        <v>0.543280047365305</v>
+        <v>0.54333925399644767</v>
       </c>
       <c r="F55">
         <v>0.54878626406157494</v>
@@ -2444,13 +2444,13 @@
         <v>0.0060982830076968999</v>
       </c>
       <c r="J55">
-        <v>0.77606593915803967</v>
+        <v>0.77604073842666266</v>
       </c>
       <c r="K55">
         <v>0.0170561864890263</v>
       </c>
       <c r="L55">
-        <v>0.1805124752947474</v>
+        <v>0.18053767602612439</v>
       </c>
       <c r="M55">
         <v>0.026365399056791101</v>
@@ -2476,16 +2476,16 @@
         <v>17200.608482590531</v>
       </c>
       <c r="D56">
-        <v>0.44187561055030927</v>
+        <v>0.44190521298955032</v>
       </c>
       <c r="E56">
-        <v>0.55812438944969067</v>
+        <v>0.55809478701044968</v>
       </c>
       <c r="F56">
-        <v>0.50264941831206889</v>
+        <v>0.50261981587282789</v>
       </c>
       <c r="G56">
-        <v>0.29122879725289358</v>
+        <v>0.29125839969213457</v>
       </c>
       <c r="H56">
         <v>0.20040851366152571</v>
@@ -2532,10 +2532,10 @@
         <v>0.57644829933986563</v>
       </c>
       <c r="F57">
-        <v>0.48482874988899077</v>
+        <v>0.48479914744974978</v>
       </c>
       <c r="G57">
-        <v>0.28868298747816817</v>
+        <v>0.28871258991740922</v>
       </c>
       <c r="H57">
         <v>0.22151505284035411</v>
@@ -2576,31 +2576,31 @@
         <v>24921.250675132189</v>
       </c>
       <c r="D58">
-        <v>0.40590864687250228</v>
+        <v>0.40584944199402029</v>
       </c>
       <c r="E58">
-        <v>0.59409135312749772</v>
+        <v>0.59415055800597971</v>
       </c>
       <c r="F58">
-        <v>0.46727450341908172</v>
+        <v>0.46730410585832272</v>
       </c>
       <c r="G58">
-        <v>0.31556200230899029</v>
+        <v>0.3154731949912673</v>
       </c>
       <c r="H58">
-        <v>0.2129599478997069</v>
+        <v>0.21301915277818889</v>
       </c>
       <c r="I58">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J58">
-        <v>0.73728696557230511</v>
+        <v>0.73722657345011555</v>
       </c>
       <c r="K58">
         <v>0.0128413384165068</v>
       </c>
       <c r="L58">
-        <v>0.22917292787556889</v>
+        <v>0.22923331999775859</v>
       </c>
       <c r="M58">
         <v>0.020698768142823901</v>
@@ -2626,31 +2626,31 @@
         <v>28755.251877904739</v>
       </c>
       <c r="D59">
-        <v>0.43557029099197769</v>
+        <v>0.43565909830970068</v>
       </c>
       <c r="E59">
-        <v>0.56442970900802225</v>
+        <v>0.56434090169029927</v>
       </c>
       <c r="F59">
         <v>0.48944673041058578</v>
       </c>
       <c r="G59">
-        <v>0.30241851928598917</v>
+        <v>0.30247772416447122</v>
       </c>
       <c r="H59">
-        <v>0.20322074538942009</v>
+        <v>0.2031615405109381</v>
       </c>
       <c r="I59">
         <v>0.0049140049140049</v>
       </c>
       <c r="J59">
-        <v>0.72950948143768179</v>
+        <v>0.72956182134491965</v>
       </c>
       <c r="K59">
         <v>0.014703923069430301</v>
       </c>
       <c r="L59">
-        <v>0.23570757860985109</v>
+        <v>0.23565523870261321</v>
       </c>
       <c r="M59">
         <v>0.020079016894602199</v>
@@ -2676,10 +2676,10 @@
         <v>32396.743076440431</v>
       </c>
       <c r="D60">
-        <v>0.36665581243894502</v>
+        <v>0.36656700512122198</v>
       </c>
       <c r="E60">
-        <v>0.63334418756105504</v>
+        <v>0.63343299487877802</v>
       </c>
       <c r="F60">
         <v>0.28302892158313853</v>
@@ -2726,31 +2726,31 @@
         <v>34847.943966589883</v>
       </c>
       <c r="D61">
-        <v>0.4487862640615749</v>
+        <v>0.44887507400828891</v>
       </c>
       <c r="E61">
-        <v>0.55121373593842504</v>
+        <v>0.55112492599171103</v>
       </c>
       <c r="F61">
-        <v>0.38134991119005329</v>
+        <v>0.3815571343990527</v>
       </c>
       <c r="G61">
-        <v>0.2295441089402013</v>
+        <v>0.2293664890467732</v>
       </c>
       <c r="H61">
-        <v>0.38478389579632921</v>
+        <v>0.38475429248075782</v>
       </c>
       <c r="I61">
         <v>0.0043220840734161997</v>
       </c>
       <c r="J61">
-        <v>0.56207350336207429</v>
+        <v>0.56208606236463199</v>
       </c>
       <c r="K61">
         <v>0.012974718793882701</v>
       </c>
       <c r="L61">
-        <v>0.40806907514771451</v>
+        <v>0.40805651614515681</v>
       </c>
       <c r="M61">
         <v>0.016882702694114599</v>
@@ -2776,31 +2776,31 @@
         <v>38237.00399309153</v>
       </c>
       <c r="D62">
-        <v>0.47239572540777358</v>
+        <v>0.47233652052929159</v>
       </c>
       <c r="E62">
-        <v>0.52760427459222647</v>
+        <v>0.52766347947070846</v>
       </c>
       <c r="F62">
-        <v>0.3827595393860454</v>
+        <v>0.38261152718984037</v>
       </c>
       <c r="G62">
-        <v>0.22699150409993779</v>
+        <v>0.2271099138569018</v>
       </c>
       <c r="H62">
-        <v>0.38643024185192859</v>
+        <v>0.38645984429116959</v>
       </c>
       <c r="I62">
         <v>0.0038187146620882002</v>
       </c>
       <c r="J62">
-        <v>0.56570471788640209</v>
+        <v>0.56569327236462907</v>
       </c>
       <c r="K62">
         <v>0.0107424849323487</v>
       </c>
       <c r="L62">
-        <v>0.40757248869519241</v>
+        <v>0.40758393421696543</v>
       </c>
       <c r="M62">
         <v>0.015980308474503602</v>
@@ -2826,16 +2826,16 @@
         <v>41474.150206014478</v>
       </c>
       <c r="D63">
-        <v>0.46250851070128179</v>
+        <v>0.4624789082620408</v>
       </c>
       <c r="E63">
-        <v>0.53749148929871815</v>
+        <v>0.53752109173795914</v>
       </c>
       <c r="F63">
-        <v>0.38447648086202302</v>
+        <v>0.38441727598354097</v>
       </c>
       <c r="G63">
-        <v>0.23039578461265209</v>
+        <v>0.2304549894911341</v>
       </c>
       <c r="H63">
         <v>0.38190106864805662</v>
@@ -2876,22 +2876,22 @@
         <v>44675.421915587722</v>
       </c>
       <c r="D64">
-        <v>0.47236612296853259</v>
+        <v>0.47248453272549662</v>
       </c>
       <c r="E64">
-        <v>0.52763387703146747</v>
+        <v>0.52751546727450349</v>
       </c>
       <c r="F64">
-        <v>0.32020958526982618</v>
+        <v>0.32009117551286231</v>
       </c>
       <c r="G64">
-        <v>0.22169266747579999</v>
+        <v>0.22157425771883599</v>
       </c>
       <c r="H64">
-        <v>0.45501909357331038</v>
+        <v>0.45528551552647939</v>
       </c>
       <c r="I64">
-        <v>0.0030786536810633001</v>
+        <v>0.0030490512418223001</v>
       </c>
       <c r="J64">
         <v>0.44583505234813869</v>
@@ -2926,31 +2926,31 @@
         <v>46765.240499235893</v>
       </c>
       <c r="D65">
-        <v>0.47911547911547908</v>
+        <v>0.47799058642432141</v>
       </c>
       <c r="E65">
-        <v>0.52088452088452086</v>
+        <v>0.52200941357567865</v>
       </c>
       <c r="F65">
-        <v>0.34602291228797261</v>
+        <v>0.34605251472721349</v>
       </c>
       <c r="G65">
-        <v>0.31280897545957792</v>
+        <v>0.31354903644060272</v>
       </c>
       <c r="H65">
-        <v>0.34004321956129191</v>
+        <v>0.33924395370178501</v>
       </c>
       <c r="I65">
-        <v>0.0011248926911578</v>
+        <v>0.0011544951303987</v>
       </c>
       <c r="J65">
-        <v>0.1973908444467127</v>
+        <v>0.1973796859068791</v>
       </c>
       <c r="K65">
         <v>0.0034000845666184</v>
       </c>
       <c r="L65">
-        <v>0.79452306389249727</v>
+        <v>0.79453422243233085</v>
       </c>
       <c r="M65">
         <v>0.0046860070955041999</v>
@@ -2976,31 +2976,31 @@
         <v>47656.6979917157</v>
       </c>
       <c r="D66">
-        <v>0.50195381882770873</v>
+        <v>0.50301953818827705</v>
       </c>
       <c r="E66">
-        <v>0.49804618117229132</v>
+        <v>0.49698046181172301</v>
       </c>
       <c r="F66">
-        <v>0.39840142095914738</v>
+        <v>0.39849023090586139</v>
       </c>
       <c r="G66">
-        <v>0.30488454706927182</v>
+        <v>0.30426287744227348</v>
       </c>
       <c r="H66">
-        <v>0.29458259325044411</v>
+        <v>0.29511545293072822</v>
       </c>
       <c r="I66">
         <v>0.0021314387211367998</v>
       </c>
       <c r="J66">
-        <v>0.36722496615952332</v>
+        <v>0.36723591629389862</v>
       </c>
       <c r="K66">
         <v>0.0070908881622365003</v>
       </c>
       <c r="L66">
-        <v>0.61687379995922809</v>
+        <v>0.61686284982485273</v>
       </c>
       <c r="M66">
         <v>0.0088103457240844008</v>
@@ -3032,25 +3032,25 @@
         <v>0.60921819957964529</v>
       </c>
       <c r="F67">
-        <v>0.19158698676770969</v>
+        <v>0.19161658920695071</v>
       </c>
       <c r="G67">
         <v>0.12974749119327431</v>
       </c>
       <c r="H67">
-        <v>0.67739261715165333</v>
+        <v>0.67736301471241234</v>
       </c>
       <c r="I67">
         <v>0.0012729048873627001</v>
       </c>
       <c r="J67">
-        <v>0.31246301826858408</v>
+        <v>0.31249309558189742</v>
       </c>
       <c r="K67">
         <v>0.0047472957656083002</v>
       </c>
       <c r="L67">
-        <v>0.67652098185053566</v>
+        <v>0.67649090453722249</v>
       </c>
       <c r="M67">
         <v>0.0062687041266029997</v>
@@ -3082,25 +3082,25 @@
         <v>0.52215742577188362</v>
       </c>
       <c r="F68">
-        <v>0.37598058079985791</v>
+        <v>0.37595097836061692</v>
       </c>
       <c r="G68">
         <v>0.22986294070631419</v>
       </c>
       <c r="H68">
-        <v>0.38995293212160681</v>
+        <v>0.3899825345608478</v>
       </c>
       <c r="I68">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J68">
-        <v>0.57374475539015657</v>
+        <v>0.57371604351187677</v>
       </c>
       <c r="K68">
         <v>0.0108807211468548</v>
       </c>
       <c r="L68">
-        <v>0.40031007897774568</v>
+        <v>0.40033879085602547</v>
       </c>
       <c r="M68">
         <v>0.0150644444633027</v>
@@ -3126,16 +3126,16 @@
         <v>55832.682509213759</v>
       </c>
       <c r="D69">
-        <v>0.5025902134335869</v>
+        <v>0.50261981587282789</v>
       </c>
       <c r="E69">
-        <v>0.4974097865664131</v>
+        <v>0.49738018412717211</v>
       </c>
       <c r="F69">
-        <v>0.39693910778248132</v>
+        <v>0.39696871022172231</v>
       </c>
       <c r="G69">
-        <v>0.23711553832035759</v>
+        <v>0.23708593588111659</v>
       </c>
       <c r="H69">
         <v>0.36274829045913382</v>
@@ -3182,25 +3182,25 @@
         <v>0.49270299872709511</v>
       </c>
       <c r="F70">
-        <v>0.41597347621444009</v>
+        <v>0.41594387377519909</v>
       </c>
       <c r="G70">
-        <v>0.2464995115597525</v>
+        <v>0.24658831887747551</v>
       </c>
       <c r="H70">
-        <v>0.3336194902459963</v>
+        <v>0.33356028536751431</v>
       </c>
       <c r="I70">
         <v>0.0039075219798111</v>
       </c>
       <c r="J70">
-        <v>0.63369221196459213</v>
+        <v>0.63369441640836544</v>
       </c>
       <c r="K70">
         <v>0.013689791175329201</v>
       </c>
       <c r="L70">
-        <v>0.33717839498353402</v>
+        <v>0.33717619053976072</v>
       </c>
       <c r="M70">
         <v>0.015439601871399301</v>
@@ -3226,31 +3226,31 @@
         <v>63018.120963429887</v>
       </c>
       <c r="D71">
-        <v>0.44095793493383861</v>
+        <v>0.44092833249459762</v>
       </c>
       <c r="E71">
-        <v>0.55904206506616139</v>
+        <v>0.55907166750540238</v>
       </c>
       <c r="F71">
         <v>0.35383795624759479</v>
       </c>
       <c r="G71">
-        <v>0.20333915514638409</v>
+        <v>0.20325034782866111</v>
       </c>
       <c r="H71">
-        <v>0.43983304224268083</v>
+        <v>0.43992184956040381</v>
       </c>
       <c r="I71">
         <v>0.0029898463633403001</v>
       </c>
       <c r="J71">
-        <v>0.5291050700358304</v>
+        <v>0.52907254537055526</v>
       </c>
       <c r="K71">
         <v>0.011332584403003</v>
       </c>
       <c r="L71">
-        <v>0.44723604281218082</v>
+        <v>0.44726856747745602</v>
       </c>
       <c r="M71">
         <v>0.012326302745717201</v>
@@ -3285,22 +3285,22 @@
         <v>0.35953226761397278</v>
       </c>
       <c r="G72">
-        <v>0.21672587329780929</v>
+        <v>0.21675547661338071</v>
       </c>
       <c r="H72">
-        <v>0.42092954410894018</v>
+        <v>0.42089994079336879</v>
       </c>
       <c r="I72">
         <v>0.0028123149792776999</v>
       </c>
       <c r="J72">
-        <v>0.54921729879546122</v>
+        <v>0.54924615390167275</v>
       </c>
       <c r="K72">
         <v>0.010693415476942501</v>
       </c>
       <c r="L72">
-        <v>0.42926550287180087</v>
+        <v>0.42923664776558929</v>
       </c>
       <c r="M72">
         <v>0.0108237828658065</v>
@@ -3332,13 +3332,13 @@
         <v>0.46108759361771412</v>
       </c>
       <c r="F73">
-        <v>0.40362925905094582</v>
+        <v>0.40365886149018682</v>
       </c>
       <c r="G73">
         <v>0.23169829193925581</v>
       </c>
       <c r="H73">
-        <v>0.36177140996418111</v>
+        <v>0.36174180752494012</v>
       </c>
       <c r="I73">
         <v>0.0029010390456173998</v>
@@ -3376,19 +3376,19 @@
         <v>73330.520103062736</v>
       </c>
       <c r="D74">
-        <v>0.54027411858737162</v>
+        <v>0.54024451614813063</v>
       </c>
       <c r="E74">
-        <v>0.45972588141262838</v>
+        <v>0.45975548385186937</v>
       </c>
       <c r="F74">
         <v>0.40999378348775939</v>
       </c>
       <c r="G74">
-        <v>0.2288860602113614</v>
+        <v>0.22885645777212041</v>
       </c>
       <c r="H74">
-        <v>0.35795269530209289</v>
+        <v>0.35798229774133389</v>
       </c>
       <c r="I74">
         <v>0.0031674609987863002</v>
@@ -3432,10 +3432,10 @@
         <v>0.47920428643320212</v>
       </c>
       <c r="F75">
-        <v>0.38080577839613983</v>
+        <v>0.38077617595689878</v>
       </c>
       <c r="G75">
-        <v>0.21082857227435539</v>
+        <v>0.21085817471359641</v>
       </c>
       <c r="H75">
         <v>0.4057606346762973</v>
@@ -3476,19 +3476,19 @@
         <v>81029.566179259418</v>
       </c>
       <c r="D76">
-        <v>0.52701222580740648</v>
+        <v>0.52707143068588846</v>
       </c>
       <c r="E76">
-        <v>0.47298777419259352</v>
+        <v>0.47292856931411148</v>
       </c>
       <c r="F76">
         <v>0.3840324442734081</v>
       </c>
       <c r="G76">
-        <v>0.21520973328202239</v>
+        <v>0.21523933572126339</v>
       </c>
       <c r="H76">
-        <v>0.39794559071667512</v>
+        <v>0.39791598827743407</v>
       </c>
       <c r="I76">
         <v>0.0028122317278943998</v>
@@ -3526,19 +3526,19 @@
         <v>85452.413043066001</v>
       </c>
       <c r="D77">
-        <v>0.52680500873271963</v>
+        <v>0.52674580385423764</v>
       </c>
       <c r="E77">
-        <v>0.47319499126728037</v>
+        <v>0.47325419614576242</v>
       </c>
       <c r="F77">
         <v>0.41958497380184129</v>
       </c>
       <c r="G77">
-        <v>0.23027737485568811</v>
+        <v>0.23024777241644709</v>
       </c>
       <c r="H77">
-        <v>0.34685178058672028</v>
+        <v>0.34688138302596128</v>
       </c>
       <c r="I77">
         <v>0.0032858707557503002</v>
@@ -3576,31 +3576,31 @@
         <v>90267.308171208919</v>
       </c>
       <c r="D78">
-        <v>0.51524570751924215</v>
+        <v>0.51527531083481348</v>
       </c>
       <c r="E78">
-        <v>0.48475429248075791</v>
+        <v>0.48472468916518652</v>
       </c>
       <c r="F78">
-        <v>0.41604499703966852</v>
+        <v>0.41601539372409713</v>
       </c>
       <c r="G78">
-        <v>0.23099467140319721</v>
+        <v>0.23096506808762579</v>
       </c>
       <c r="H78">
-        <v>0.34976317347542918</v>
+        <v>0.34982238010657202</v>
       </c>
       <c r="I78">
         <v>0.0031971580817052002</v>
       </c>
       <c r="J78">
-        <v>0.6266888797475566</v>
+        <v>0.62662801847435556</v>
       </c>
       <c r="K78">
         <v>0.013991543938348901</v>
       </c>
       <c r="L78">
-        <v>0.34437800252413542</v>
+        <v>0.3444388637973364</v>
       </c>
       <c r="M78">
         <v>0.0149415737858481</v>
@@ -3626,31 +3626,31 @@
         <v>95318.760198271586</v>
       </c>
       <c r="D79">
-        <v>0.50297504514371982</v>
+        <v>0.50300464758296082</v>
       </c>
       <c r="E79">
-        <v>0.49702495485628018</v>
+        <v>0.49699535241703918</v>
       </c>
       <c r="F79">
-        <v>0.39172907847606642</v>
+        <v>0.39175868091530741</v>
       </c>
       <c r="G79">
-        <v>0.226310647997395</v>
+        <v>0.226340250436636</v>
       </c>
       <c r="H79">
-        <v>0.37820076374293238</v>
+        <v>0.37814155886445039</v>
       </c>
       <c r="I79">
         <v>0.0037595097836062002</v>
       </c>
       <c r="J79">
-        <v>0.59787676290893488</v>
+        <v>0.59793439711087915</v>
       </c>
       <c r="K79">
         <v>0.016043441646872301</v>
       </c>
       <c r="L79">
-        <v>0.37128409885314911</v>
+        <v>0.37122646465120479</v>
       </c>
       <c r="M79">
         <v>0.0147956965823155</v>
@@ -3682,10 +3682,10 @@
         <v>0.49243657677392622</v>
       </c>
       <c r="F80">
-        <v>0.38216749060122562</v>
+        <v>0.38219709304046651</v>
       </c>
       <c r="G80">
-        <v>0.23015896509872411</v>
+        <v>0.23012936265948311</v>
       </c>
       <c r="H80">
         <v>0.38346999792782932</v>
@@ -3726,16 +3726,16 @@
         <v>106135.6145292935</v>
       </c>
       <c r="D81">
-        <v>0.52941002338592702</v>
+        <v>0.52938042094668603</v>
       </c>
       <c r="E81">
-        <v>0.47058997661407298</v>
+        <v>0.47061957905331397</v>
       </c>
       <c r="F81">
-        <v>0.39933690536100169</v>
+        <v>0.39930730292176081</v>
       </c>
       <c r="G81">
-        <v>0.25114709452058848</v>
+        <v>0.25117669695982953</v>
       </c>
       <c r="H81">
         <v>0.34614132204493647</v>
@@ -4032,10 +4032,10 @@
         <v>0.46016991800124329</v>
       </c>
       <c r="F87">
-        <v>0.37056333441875611</v>
+        <v>0.37053373197951511</v>
       </c>
       <c r="G87">
-        <v>0.30573399248098038</v>
+        <v>0.30576359492022143</v>
       </c>
       <c r="H87">
         <v>0.31958793404576541</v>
@@ -4082,10 +4082,10 @@
         <v>0.45803854237589181</v>
       </c>
       <c r="F88">
-        <v>0.36049850507681841</v>
+        <v>0.36052810751605929</v>
       </c>
       <c r="G88">
-        <v>0.30872383884432081</v>
+        <v>0.30869423640507981</v>
       </c>
       <c r="H88">
         <v>0.32707735117373671</v>
